--- a/Raw data/Indo-Iranian.xlsx
+++ b/Raw data/Indo-Iranian.xlsx
@@ -1,77 +1,45 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11012"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c0865a3d2f904f8f/Documents/Religion Trees/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/anylabuser2/Dropbox/LEVYNA/0 - Tree study/Analysis - With Remco 2/Raw data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="8_{91A97D33-C91A-4B4F-9CA4-4B0CC4D61C60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{364685CA-9EDB-4E15-8376-D04A135F3955}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5DCA616-A4B4-C448-BE1D-CD2BC4CE6776}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38440" yWindow="1520" windowWidth="28160" windowHeight="12800" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Taxa" sheetId="3" r:id="rId1"/>
     <sheet name="Refs" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1525" uniqueCount="640">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1534" uniqueCount="648">
   <si>
     <t>NA</t>
   </si>
   <si>
-    <t>RefID</t>
-  </si>
-  <si>
-    <t>AuthorSurname</t>
-  </si>
-  <si>
     <t>Year</t>
   </si>
   <si>
     <t>Title</t>
   </si>
   <si>
-    <t>WebAddress</t>
-  </si>
-  <si>
-    <t>PubType</t>
-  </si>
-  <si>
-    <t>PubTypeNEW</t>
-  </si>
-  <si>
-    <t>Trustworthiness</t>
-  </si>
-  <si>
     <t>Comments</t>
   </si>
   <si>
-    <t>Harvey</t>
-  </si>
-  <si>
-    <t>Buswell, R.E.</t>
-  </si>
-  <si>
     <t>Encyclopedia of Buddhism</t>
   </si>
   <si>
@@ -84,19 +52,10 @@
     <t>Shingon</t>
   </si>
   <si>
-    <t xml:space="preserve">Warder </t>
-  </si>
-  <si>
     <t>Indo-Iranian</t>
   </si>
   <si>
     <t>Buddhist</t>
-  </si>
-  <si>
-    <t>Doniger</t>
-  </si>
-  <si>
-    <t>Encyclopedia of World Religions</t>
   </si>
   <si>
     <t>~1:157</t>
@@ -155,9 +114,6 @@
     <t>Saura</t>
   </si>
   <si>
-    <t>Jones</t>
-  </si>
-  <si>
     <t>~2:1140</t>
   </si>
   <si>
@@ -348,9 +304,6 @@
   </si>
   <si>
     <t>~3:575</t>
-  </si>
-  <si>
-    <t>Flood</t>
   </si>
   <si>
     <t>Shingon, Tendai</t>
@@ -606,9 +559,6 @@
     <t>~5:259</t>
   </si>
   <si>
-    <t>Indian Buddhism (3rd Ed.)</t>
-  </si>
-  <si>
     <t>Ājīvika</t>
   </si>
   <si>
@@ -649,9 +599,6 @@
   </si>
   <si>
     <t>Rinzai</t>
-  </si>
-  <si>
-    <t>Long</t>
   </si>
   <si>
     <t>Jainism: An Introduction</t>
@@ -790,9 +737,6 @@
     <t>Sanatan Sikh</t>
   </si>
   <si>
-    <t>Arvind-Pal Singh Mandair</t>
-  </si>
-  <si>
     <t>~9:209-210</t>
   </si>
   <si>
@@ -864,12 +808,6 @@
     </r>
   </si>
   <si>
-    <t>Burchett</t>
-  </si>
-  <si>
-    <t>A genealogy of devotion : Bhakti, Tantra, Yoga, and Sufism in North India</t>
-  </si>
-  <si>
     <t>~10:40</t>
   </si>
   <si>
@@ -940,9 +878,6 @@
   </si>
   <si>
     <t>A Cultural History of Japanese Buddhism</t>
-  </si>
-  <si>
-    <t>Deal &amp; Ruppert</t>
   </si>
   <si>
     <t>Kegon</t>
@@ -1494,9 +1429,6 @@
   </si>
   <si>
     <t>~2:9572-9573, 8104</t>
-  </si>
-  <si>
-    <t>Sen</t>
   </si>
   <si>
     <t>Rammohun Roy: A critical biography</t>
@@ -2470,12 +2402,96 @@
   <si>
     <t>Sikhs who distance themselves from the Khalsa, but are not Niraṅkārīs (9:394).</t>
   </si>
+  <si>
+    <t>Publisher</t>
+  </si>
+  <si>
+    <t>Author(s)</t>
+  </si>
+  <si>
+    <t>Doniger, W.</t>
+  </si>
+  <si>
+    <t>DOI/ ISBN</t>
+  </si>
+  <si>
+    <t>Britannica Encyclopedia of World Religions</t>
+  </si>
+  <si>
+    <t>Jones, L.</t>
+  </si>
+  <si>
+    <t>Reference no.</t>
+  </si>
+  <si>
+    <t>Encyclopaedia Britannica</t>
+  </si>
+  <si>
+    <t>Macmillan Reference</t>
+  </si>
+  <si>
+    <t>Buswell, R.E. (Ed.)</t>
+  </si>
+  <si>
+    <t>Cambridge University Press</t>
+  </si>
+  <si>
+    <t>Harvey, P.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Flood, G. D. </t>
+  </si>
+  <si>
+    <t>Wiley-Blackwell</t>
+  </si>
+  <si>
+    <t>Deal, W. E., &amp; Ruppert, B.</t>
+  </si>
+  <si>
+    <t>Warder, A. K.</t>
+  </si>
+  <si>
+    <t>Motilal Banarsidass</t>
+  </si>
+  <si>
+    <t>Indian Buddhism</t>
+  </si>
+  <si>
+    <t>Mandair, A.-P. S.</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1007/978-94-024-0846-1</t>
+  </si>
+  <si>
+    <t>Springer Dordrecht</t>
+  </si>
+  <si>
+    <t>Long, J. D.</t>
+  </si>
+  <si>
+    <t>I B Tauris</t>
+  </si>
+  <si>
+    <t>A genealogy of devotion: Bhakti, Tantra, Yoga, and Sufism in North India</t>
+  </si>
+  <si>
+    <t>Columbia University Press</t>
+  </si>
+  <si>
+    <t>Sen, A. P.</t>
+  </si>
+  <si>
+    <t>Penguin</t>
+  </si>
+  <si>
+    <t>Burchett, P. E.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2484,7 +2500,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -2525,16 +2541,37 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
+      <i/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF191919"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF0F1111"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF333333"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF231F20"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -2560,13 +2597,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -2574,6 +2607,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="1" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="1" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="1" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="1" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="1" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2862,94 +2909,94 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S138"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="5" max="5" width="9.109375" customWidth="1"/>
-    <col min="7" max="15" width="9.109375" customWidth="1"/>
+    <col min="5" max="5" width="9.1640625" customWidth="1"/>
+    <col min="7" max="15" width="9.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>388</v>
+        <v>369</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>268</v>
+        <v>249</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>270</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>271</v>
+        <v>250</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>252</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>272</v>
+        <v>253</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>273</v>
-      </c>
-      <c r="J1" s="5" t="s">
-        <v>274</v>
+        <v>254</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>255</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>275</v>
-      </c>
-      <c r="L1" s="5" t="s">
-        <v>276</v>
+        <v>256</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>257</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>277</v>
+        <v>258</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="O1" s="5" t="s">
-        <v>279</v>
+        <v>259</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>260</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>404</v>
+        <v>384</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>405</v>
+        <v>385</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>280</v>
+        <v>261</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2" t="s">
-        <v>151</v>
+        <v>137</v>
       </c>
       <c r="E2" t="s">
-        <v>283</v>
+        <v>264</v>
       </c>
       <c r="F2" t="s">
         <v>0</v>
       </c>
       <c r="G2" t="s">
-        <v>282</v>
+        <v>263</v>
       </c>
       <c r="H2" t="s">
         <v>0</v>
@@ -2973,7 +3020,7 @@
         <v>-1800</v>
       </c>
       <c r="O2" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="Q2" t="s">
         <v>0</v>
@@ -2985,27 +3032,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>284</v>
+        <v>265</v>
       </c>
       <c r="B3" t="s">
-        <v>280</v>
+        <v>261</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3" t="s">
-        <v>286</v>
+        <v>267</v>
       </c>
       <c r="E3" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="F3" t="s">
         <v>0</v>
       </c>
       <c r="G3" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="H3" t="s">
         <v>0</v>
@@ -3014,13 +3061,13 @@
         <v>-2200</v>
       </c>
       <c r="J3" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="K3">
         <v>-1800</v>
       </c>
       <c r="L3" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="M3">
         <v>-1500</v>
@@ -3029,7 +3076,7 @@
         <v>-1000</v>
       </c>
       <c r="O3" t="s">
-        <v>285</v>
+        <v>266</v>
       </c>
       <c r="Q3">
         <f t="shared" ref="Q3:Q34" si="0">1918-K3</f>
@@ -3044,42 +3091,42 @@
         <v>3918</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>287</v>
+        <v>268</v>
       </c>
       <c r="B4" t="s">
-        <v>280</v>
+        <v>261</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4" t="s">
-        <v>562</v>
+        <v>542</v>
       </c>
       <c r="E4" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="F4" t="s">
-        <v>564</v>
+        <v>544</v>
       </c>
       <c r="G4" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="H4" t="s">
-        <v>565</v>
+        <v>545</v>
       </c>
       <c r="I4">
         <v>-2200</v>
       </c>
       <c r="J4" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="K4">
         <v>-1800</v>
       </c>
       <c r="L4" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="M4">
         <v>-1800</v>
@@ -3088,7 +3135,7 @@
         <v>-500</v>
       </c>
       <c r="O4" t="s">
-        <v>567</v>
+        <v>547</v>
       </c>
       <c r="Q4">
         <f t="shared" si="0"/>
@@ -3103,42 +3150,42 @@
         <v>3918</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>389</v>
+        <v>370</v>
       </c>
       <c r="B5" t="s">
-        <v>280</v>
+        <v>261</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5" t="s">
-        <v>394</v>
+        <v>375</v>
       </c>
       <c r="E5" t="s">
-        <v>392</v>
+        <v>373</v>
       </c>
       <c r="F5" t="s">
-        <v>419</v>
+        <v>399</v>
       </c>
       <c r="G5" t="s">
-        <v>393</v>
+        <v>374</v>
       </c>
       <c r="H5" t="s">
-        <v>420</v>
+        <v>400</v>
       </c>
       <c r="I5">
         <v>-1500</v>
       </c>
       <c r="J5" t="s">
-        <v>285</v>
+        <v>266</v>
       </c>
       <c r="K5">
         <v>-1000</v>
       </c>
       <c r="L5" t="s">
-        <v>285</v>
+        <v>266</v>
       </c>
       <c r="M5">
         <v>650</v>
@@ -3147,7 +3194,7 @@
         <v>750</v>
       </c>
       <c r="O5" t="s">
-        <v>408</v>
+        <v>388</v>
       </c>
       <c r="Q5">
         <f t="shared" si="0"/>
@@ -3162,42 +3209,42 @@
         <v>3168</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>558</v>
+        <v>538</v>
       </c>
       <c r="B6" t="s">
-        <v>289</v>
+        <v>270</v>
       </c>
       <c r="C6">
         <v>1</v>
       </c>
       <c r="D6" t="s">
-        <v>568</v>
+        <v>548</v>
       </c>
       <c r="E6" t="s">
-        <v>287</v>
+        <v>268</v>
       </c>
       <c r="F6" t="s">
-        <v>560</v>
+        <v>540</v>
       </c>
       <c r="G6" t="s">
-        <v>569</v>
+        <v>549</v>
       </c>
       <c r="H6" t="s">
-        <v>570</v>
+        <v>550</v>
       </c>
       <c r="I6">
         <v>-1800</v>
       </c>
       <c r="J6" t="s">
-        <v>571</v>
+        <v>551</v>
       </c>
       <c r="K6">
         <v>-600</v>
       </c>
       <c r="L6" t="s">
-        <v>559</v>
+        <v>539</v>
       </c>
       <c r="M6">
         <v>-175</v>
@@ -3206,7 +3253,7 @@
         <v>300</v>
       </c>
       <c r="O6" t="s">
-        <v>561</v>
+        <v>541</v>
       </c>
       <c r="Q6">
         <f t="shared" si="0"/>
@@ -3221,42 +3268,42 @@
         <v>3118</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>417</v>
+        <v>397</v>
       </c>
       <c r="B7" t="s">
-        <v>280</v>
+        <v>261</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7" t="s">
-        <v>430</v>
+        <v>410</v>
       </c>
       <c r="E7" t="s">
-        <v>284</v>
+        <v>265</v>
       </c>
       <c r="F7" t="s">
-        <v>410</v>
+        <v>390</v>
       </c>
       <c r="G7" t="s">
-        <v>411</v>
+        <v>391</v>
       </c>
       <c r="H7" t="s">
-        <v>166</v>
+        <v>151</v>
       </c>
       <c r="I7">
         <v>-1900</v>
       </c>
       <c r="J7" t="s">
-        <v>411</v>
+        <v>391</v>
       </c>
       <c r="K7">
         <v>-500</v>
       </c>
       <c r="L7" t="s">
-        <v>409</v>
+        <v>389</v>
       </c>
       <c r="M7">
         <v>-465</v>
@@ -3265,7 +3312,7 @@
         <v>-395</v>
       </c>
       <c r="O7" t="s">
-        <v>431</v>
+        <v>411</v>
       </c>
       <c r="Q7">
         <f t="shared" si="0"/>
@@ -3280,42 +3327,42 @@
         <v>3118</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="B8" t="s">
-        <v>280</v>
+        <v>261</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8" t="s">
-        <v>579</v>
+        <v>559</v>
       </c>
       <c r="E8" t="s">
-        <v>287</v>
+        <v>268</v>
       </c>
       <c r="F8" t="s">
-        <v>566</v>
+        <v>546</v>
       </c>
       <c r="G8" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="H8" t="s">
-        <v>563</v>
+        <v>543</v>
       </c>
       <c r="I8">
         <v>-1800</v>
       </c>
       <c r="J8" t="s">
-        <v>563</v>
+        <v>543</v>
       </c>
       <c r="K8">
         <v>-500</v>
       </c>
       <c r="L8" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="M8">
         <v>936</v>
@@ -3324,7 +3371,7 @@
         <v>1746</v>
       </c>
       <c r="O8" t="s">
-        <v>572</v>
+        <v>552</v>
       </c>
       <c r="Q8">
         <f t="shared" si="0"/>
@@ -3339,27 +3386,27 @@
         <v>3068</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>587</v>
+        <v>567</v>
       </c>
       <c r="B9" t="s">
-        <v>289</v>
+        <v>270</v>
       </c>
       <c r="C9">
         <v>1</v>
       </c>
       <c r="D9" t="s">
-        <v>588</v>
+        <v>568</v>
       </c>
       <c r="E9" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="F9" t="s">
         <v>0</v>
       </c>
       <c r="G9" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="H9" t="s">
         <v>0</v>
@@ -3368,13 +3415,13 @@
         <v>-500</v>
       </c>
       <c r="J9" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="K9">
         <v>-400</v>
       </c>
       <c r="L9" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="M9">
         <v>850</v>
@@ -3383,7 +3430,7 @@
         <v>900</v>
       </c>
       <c r="O9" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="Q9">
         <f t="shared" si="0"/>
@@ -3398,27 +3445,27 @@
         <v>2368</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>146</v>
+        <v>132</v>
       </c>
       <c r="B10" t="s">
-        <v>289</v>
+        <v>270</v>
       </c>
       <c r="C10">
         <v>1</v>
       </c>
       <c r="D10" t="s">
-        <v>424</v>
+        <v>404</v>
       </c>
       <c r="E10" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="F10" t="s">
         <v>0</v>
       </c>
       <c r="G10" t="s">
-        <v>246</v>
+        <v>227</v>
       </c>
       <c r="H10" t="s">
         <v>0</v>
@@ -3427,13 +3474,13 @@
         <v>-457</v>
       </c>
       <c r="J10" t="s">
-        <v>425</v>
+        <v>405</v>
       </c>
       <c r="K10">
         <v>-427</v>
       </c>
       <c r="L10" t="s">
-        <v>425</v>
+        <v>405</v>
       </c>
       <c r="M10">
         <v>1400</v>
@@ -3442,7 +3489,7 @@
         <v>1500</v>
       </c>
       <c r="O10" t="s">
-        <v>426</v>
+        <v>406</v>
       </c>
       <c r="Q10">
         <f t="shared" si="0"/>
@@ -3457,27 +3504,27 @@
         <v>2360</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="B11" t="s">
-        <v>280</v>
+        <v>261</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11" t="s">
-        <v>432</v>
+        <v>412</v>
       </c>
       <c r="E11" t="s">
-        <v>417</v>
+        <v>397</v>
       </c>
       <c r="F11" t="s">
         <v>0</v>
       </c>
       <c r="G11" t="s">
-        <v>413</v>
+        <v>393</v>
       </c>
       <c r="H11" t="s">
         <v>0</v>
@@ -3486,13 +3533,13 @@
         <v>-457</v>
       </c>
       <c r="J11" t="s">
-        <v>412</v>
+        <v>392</v>
       </c>
       <c r="K11">
         <v>-427</v>
       </c>
       <c r="L11" t="s">
-        <v>412</v>
+        <v>392</v>
       </c>
       <c r="M11">
         <v>-327</v>
@@ -3501,7 +3548,7 @@
         <v>400</v>
       </c>
       <c r="O11" t="s">
-        <v>414</v>
+        <v>394</v>
       </c>
       <c r="Q11">
         <f t="shared" si="0"/>
@@ -3516,42 +3563,42 @@
         <v>2360</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="B12" t="s">
-        <v>280</v>
+        <v>261</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12" t="s">
-        <v>428</v>
+        <v>408</v>
       </c>
       <c r="E12" t="s">
-        <v>417</v>
+        <v>397</v>
       </c>
       <c r="F12" t="s">
-        <v>418</v>
+        <v>398</v>
       </c>
       <c r="G12" t="s">
-        <v>416</v>
+        <v>396</v>
       </c>
       <c r="H12" t="s">
-        <v>110</v>
+        <v>97</v>
       </c>
       <c r="I12">
         <v>-465</v>
       </c>
       <c r="J12" t="s">
-        <v>429</v>
+        <v>409</v>
       </c>
       <c r="K12">
         <v>-395</v>
       </c>
       <c r="L12" t="s">
-        <v>429</v>
+        <v>409</v>
       </c>
       <c r="M12">
         <v>-420</v>
@@ -3560,7 +3607,7 @@
         <v>-225</v>
       </c>
       <c r="O12" t="s">
-        <v>427</v>
+        <v>407</v>
       </c>
       <c r="Q12">
         <f t="shared" si="0"/>
@@ -3575,27 +3622,27 @@
         <v>2348</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>148</v>
+        <v>134</v>
       </c>
       <c r="B13" t="s">
-        <v>289</v>
+        <v>270</v>
       </c>
       <c r="C13">
         <v>1</v>
       </c>
       <c r="D13" t="s">
-        <v>457</v>
+        <v>437</v>
       </c>
       <c r="E13" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="F13" t="s">
         <v>0</v>
       </c>
       <c r="G13" t="s">
-        <v>407</v>
+        <v>387</v>
       </c>
       <c r="H13" t="s">
         <v>0</v>
@@ -3604,13 +3651,13 @@
         <v>-420</v>
       </c>
       <c r="J13" t="s">
-        <v>427</v>
+        <v>407</v>
       </c>
       <c r="K13">
         <v>-225</v>
       </c>
       <c r="L13" t="s">
-        <v>407</v>
+        <v>387</v>
       </c>
       <c r="M13">
         <v>1192</v>
@@ -3619,7 +3666,7 @@
         <v>1600</v>
       </c>
       <c r="O13" t="s">
-        <v>446</v>
+        <v>426</v>
       </c>
       <c r="Q13">
         <f t="shared" si="0"/>
@@ -3634,27 +3681,27 @@
         <v>2240.5</v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>290</v>
+        <v>271</v>
       </c>
       <c r="B14" t="s">
-        <v>280</v>
+        <v>261</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14" t="s">
-        <v>638</v>
+        <v>618</v>
       </c>
       <c r="E14" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="F14" t="s">
         <v>0</v>
       </c>
       <c r="G14" t="s">
-        <v>407</v>
+        <v>387</v>
       </c>
       <c r="H14" t="s">
         <v>0</v>
@@ -3663,13 +3710,13 @@
         <v>-420</v>
       </c>
       <c r="J14" t="s">
-        <v>427</v>
+        <v>407</v>
       </c>
       <c r="K14">
         <v>-225</v>
       </c>
       <c r="L14" t="s">
-        <v>407</v>
+        <v>387</v>
       </c>
       <c r="M14">
         <v>-268</v>
@@ -3678,7 +3725,7 @@
         <v>100</v>
       </c>
       <c r="O14" t="s">
-        <v>439</v>
+        <v>419</v>
       </c>
       <c r="Q14">
         <f t="shared" si="0"/>
@@ -3693,27 +3740,27 @@
         <v>2240.5</v>
       </c>
     </row>
-    <row r="15" spans="1:19" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:19" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>434</v>
+        <v>414</v>
       </c>
       <c r="B15" t="s">
-        <v>289</v>
+        <v>270</v>
       </c>
       <c r="C15">
         <v>1</v>
       </c>
-      <c r="D15" s="6" t="s">
-        <v>468</v>
+      <c r="D15" s="4" t="s">
+        <v>448</v>
       </c>
       <c r="E15" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="F15" t="s">
         <v>0</v>
       </c>
       <c r="G15" t="s">
-        <v>437</v>
+        <v>417</v>
       </c>
       <c r="H15" t="s">
         <v>0</v>
@@ -3722,13 +3769,13 @@
         <v>-250</v>
       </c>
       <c r="J15" t="s">
-        <v>450</v>
+        <v>430</v>
       </c>
       <c r="K15">
         <v>-150</v>
       </c>
       <c r="L15" t="s">
-        <v>450</v>
+        <v>430</v>
       </c>
       <c r="M15">
         <v>200</v>
@@ -3737,7 +3784,7 @@
         <v>800</v>
       </c>
       <c r="O15" t="s">
-        <v>452</v>
+        <v>432</v>
       </c>
       <c r="Q15">
         <f t="shared" si="0"/>
@@ -3752,27 +3799,27 @@
         <v>2118</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>320</v>
+        <v>301</v>
       </c>
       <c r="B16" t="s">
-        <v>288</v>
+        <v>269</v>
       </c>
       <c r="C16">
         <v>1</v>
       </c>
       <c r="D16" t="s">
-        <v>617</v>
+        <v>597</v>
       </c>
       <c r="E16" t="s">
-        <v>292</v>
+        <v>273</v>
       </c>
       <c r="F16" t="s">
         <v>0</v>
       </c>
       <c r="G16" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="H16" t="s">
         <v>0</v>
@@ -3781,13 +3828,13 @@
         <v>-225</v>
       </c>
       <c r="J16" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="K16">
         <v>-175</v>
       </c>
       <c r="L16" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="M16" t="s">
         <v>0</v>
@@ -3796,7 +3843,7 @@
         <v>0</v>
       </c>
       <c r="O16" t="s">
-        <v>245</v>
+        <v>226</v>
       </c>
       <c r="Q16">
         <f t="shared" si="0"/>
@@ -3811,27 +3858,27 @@
         <v>2118</v>
       </c>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="B17" t="s">
-        <v>289</v>
+        <v>270</v>
       </c>
       <c r="C17">
         <v>1</v>
       </c>
       <c r="D17" t="s">
-        <v>455</v>
+        <v>435</v>
       </c>
       <c r="E17" t="s">
-        <v>292</v>
+        <v>273</v>
       </c>
       <c r="F17" t="s">
         <v>0</v>
       </c>
       <c r="G17" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="H17" t="s">
         <v>0</v>
@@ -3840,13 +3887,13 @@
         <v>-250</v>
       </c>
       <c r="J17" t="s">
-        <v>235</v>
+        <v>217</v>
       </c>
       <c r="K17">
         <v>-150</v>
       </c>
       <c r="L17" t="s">
-        <v>236</v>
+        <v>218</v>
       </c>
       <c r="M17">
         <v>200</v>
@@ -3855,7 +3902,7 @@
         <v>800</v>
       </c>
       <c r="O17" t="s">
-        <v>454</v>
+        <v>434</v>
       </c>
       <c r="Q17">
         <f t="shared" si="0"/>
@@ -3870,27 +3917,27 @@
         <v>2118</v>
       </c>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="B18" t="s">
-        <v>289</v>
+        <v>270</v>
       </c>
       <c r="C18">
         <v>1</v>
       </c>
       <c r="D18" t="s">
-        <v>453</v>
+        <v>433</v>
       </c>
       <c r="E18" t="s">
-        <v>292</v>
+        <v>273</v>
       </c>
       <c r="F18" t="s">
         <v>0</v>
       </c>
       <c r="G18" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="H18" t="s">
         <v>0</v>
@@ -3899,13 +3946,13 @@
         <v>-250</v>
       </c>
       <c r="J18" t="s">
-        <v>234</v>
+        <v>216</v>
       </c>
       <c r="K18">
         <v>-150</v>
       </c>
       <c r="L18" t="s">
-        <v>234</v>
+        <v>216</v>
       </c>
       <c r="M18">
         <v>200</v>
@@ -3914,7 +3961,7 @@
         <v>800</v>
       </c>
       <c r="O18" t="s">
-        <v>454</v>
+        <v>434</v>
       </c>
       <c r="Q18">
         <f t="shared" si="0"/>
@@ -3929,27 +3976,27 @@
         <v>2118</v>
       </c>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>435</v>
+        <v>415</v>
       </c>
       <c r="B19" t="s">
-        <v>289</v>
+        <v>270</v>
       </c>
       <c r="C19">
         <v>1</v>
       </c>
-      <c r="D19" s="6" t="s">
-        <v>466</v>
+      <c r="D19" s="4" t="s">
+        <v>446</v>
       </c>
       <c r="E19" t="s">
-        <v>448</v>
+        <v>428</v>
       </c>
       <c r="F19" t="s">
         <v>0</v>
       </c>
       <c r="G19" t="s">
-        <v>449</v>
+        <v>429</v>
       </c>
       <c r="H19" t="s">
         <v>0</v>
@@ -3958,13 +4005,13 @@
         <v>-250</v>
       </c>
       <c r="J19" t="s">
-        <v>450</v>
+        <v>430</v>
       </c>
       <c r="K19">
         <v>-150</v>
       </c>
       <c r="L19" t="s">
-        <v>450</v>
+        <v>430</v>
       </c>
       <c r="M19">
         <v>1192</v>
@@ -3973,7 +4020,7 @@
         <v>1600</v>
       </c>
       <c r="O19" t="s">
-        <v>446</v>
+        <v>426</v>
       </c>
       <c r="Q19">
         <f t="shared" si="0"/>
@@ -3988,27 +4035,27 @@
         <v>2118</v>
       </c>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="B20" t="s">
-        <v>289</v>
+        <v>270</v>
       </c>
       <c r="C20">
         <v>1</v>
       </c>
       <c r="D20" t="s">
-        <v>465</v>
+        <v>445</v>
       </c>
       <c r="E20" t="s">
-        <v>148</v>
+        <v>134</v>
       </c>
       <c r="F20" t="s">
         <v>0</v>
       </c>
       <c r="G20" t="s">
-        <v>437</v>
+        <v>417</v>
       </c>
       <c r="H20" t="s">
         <v>0</v>
@@ -4017,13 +4064,13 @@
         <v>-336</v>
       </c>
       <c r="J20" t="s">
-        <v>447</v>
+        <v>427</v>
       </c>
       <c r="K20">
         <v>-11</v>
       </c>
       <c r="L20" t="s">
-        <v>232</v>
+        <v>214</v>
       </c>
       <c r="M20">
         <v>1192</v>
@@ -4032,7 +4079,7 @@
         <v>1600</v>
       </c>
       <c r="O20" t="s">
-        <v>446</v>
+        <v>426</v>
       </c>
       <c r="Q20">
         <f t="shared" si="0"/>
@@ -4047,27 +4094,27 @@
         <v>2091.5</v>
       </c>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>231</v>
+        <v>213</v>
       </c>
       <c r="B21" t="s">
-        <v>289</v>
+        <v>270</v>
       </c>
       <c r="C21">
         <v>1</v>
       </c>
       <c r="D21" t="s">
-        <v>463</v>
+        <v>443</v>
       </c>
       <c r="E21" t="s">
-        <v>148</v>
+        <v>134</v>
       </c>
       <c r="F21" t="s">
         <v>0</v>
       </c>
       <c r="G21" t="s">
-        <v>437</v>
+        <v>417</v>
       </c>
       <c r="H21" t="s">
         <v>0</v>
@@ -4076,13 +4123,13 @@
         <v>-336</v>
       </c>
       <c r="J21" t="s">
-        <v>447</v>
+        <v>427</v>
       </c>
       <c r="K21">
         <v>-11</v>
       </c>
       <c r="L21" t="s">
-        <v>232</v>
+        <v>214</v>
       </c>
       <c r="M21">
         <v>1192</v>
@@ -4091,7 +4138,7 @@
         <v>1600</v>
       </c>
       <c r="O21" t="s">
-        <v>446</v>
+        <v>426</v>
       </c>
       <c r="Q21">
         <f t="shared" si="0"/>
@@ -4106,27 +4153,27 @@
         <v>2091.5</v>
       </c>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>291</v>
+        <v>272</v>
       </c>
       <c r="B22" t="s">
-        <v>289</v>
+        <v>270</v>
       </c>
       <c r="C22">
         <v>1</v>
       </c>
       <c r="D22" t="s">
-        <v>467</v>
+        <v>447</v>
       </c>
       <c r="E22" t="s">
-        <v>290</v>
+        <v>271</v>
       </c>
       <c r="F22" t="s">
         <v>0</v>
       </c>
       <c r="G22" t="s">
-        <v>451</v>
+        <v>431</v>
       </c>
       <c r="H22" t="s">
         <v>0</v>
@@ -4135,13 +4182,13 @@
         <v>-286</v>
       </c>
       <c r="J22" t="s">
-        <v>436</v>
+        <v>416</v>
       </c>
       <c r="K22">
         <v>-61</v>
       </c>
       <c r="L22" t="s">
-        <v>436</v>
+        <v>416</v>
       </c>
       <c r="M22">
         <v>1192</v>
@@ -4150,7 +4197,7 @@
         <v>1600</v>
       </c>
       <c r="O22" t="s">
-        <v>446</v>
+        <v>426</v>
       </c>
       <c r="Q22">
         <f t="shared" si="0"/>
@@ -4165,27 +4212,27 @@
         <v>2091.5</v>
       </c>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="B23" t="s">
-        <v>280</v>
+        <v>261</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
-      <c r="D23" s="6" t="s">
-        <v>421</v>
+      <c r="D23" s="4" t="s">
+        <v>401</v>
       </c>
       <c r="E23" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="F23" t="s">
         <v>0</v>
       </c>
       <c r="G23" t="s">
-        <v>171</v>
+        <v>156</v>
       </c>
       <c r="H23" t="s">
         <v>0</v>
@@ -4194,13 +4241,13 @@
         <v>-327</v>
       </c>
       <c r="J23" t="s">
-        <v>415</v>
+        <v>395</v>
       </c>
       <c r="K23">
         <v>100</v>
       </c>
       <c r="L23" t="s">
-        <v>171</v>
+        <v>156</v>
       </c>
       <c r="M23">
         <v>1600</v>
@@ -4209,7 +4256,7 @@
         <v>1700</v>
       </c>
       <c r="O23" t="s">
-        <v>309</v>
+        <v>290</v>
       </c>
       <c r="Q23">
         <f t="shared" si="0"/>
@@ -4224,27 +4271,27 @@
         <v>2031.5</v>
       </c>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="B24" t="s">
-        <v>280</v>
+        <v>261</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
-      <c r="D24" s="6" t="s">
-        <v>422</v>
+      <c r="D24" s="4" t="s">
+        <v>402</v>
       </c>
       <c r="E24" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="F24" t="s">
         <v>0</v>
       </c>
       <c r="G24" t="s">
-        <v>171</v>
+        <v>156</v>
       </c>
       <c r="H24" t="s">
         <v>0</v>
@@ -4253,13 +4300,13 @@
         <v>-327</v>
       </c>
       <c r="J24" t="s">
-        <v>415</v>
+        <v>395</v>
       </c>
       <c r="K24">
         <v>100</v>
       </c>
       <c r="L24" t="s">
-        <v>171</v>
+        <v>156</v>
       </c>
       <c r="M24">
         <v>1400</v>
@@ -4268,7 +4315,7 @@
         <v>1700</v>
       </c>
       <c r="O24" t="s">
-        <v>305</v>
+        <v>286</v>
       </c>
       <c r="Q24">
         <f t="shared" si="0"/>
@@ -4283,27 +4330,27 @@
         <v>2031.5</v>
       </c>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>355</v>
+        <v>336</v>
       </c>
       <c r="B25" t="s">
-        <v>280</v>
+        <v>261</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25" t="s">
-        <v>620</v>
+        <v>600</v>
       </c>
       <c r="E25" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="F25" t="s">
         <v>0</v>
       </c>
       <c r="G25" t="s">
-        <v>437</v>
+        <v>417</v>
       </c>
       <c r="H25" t="s">
         <v>0</v>
@@ -4312,13 +4359,13 @@
         <v>-268</v>
       </c>
       <c r="J25" t="s">
-        <v>438</v>
+        <v>418</v>
       </c>
       <c r="K25">
         <v>100</v>
       </c>
       <c r="L25" t="s">
-        <v>437</v>
+        <v>417</v>
       </c>
       <c r="M25">
         <v>779</v>
@@ -4327,7 +4374,7 @@
         <v>1102</v>
       </c>
       <c r="O25" t="s">
-        <v>627</v>
+        <v>607</v>
       </c>
       <c r="Q25">
         <f t="shared" si="0"/>
@@ -4342,27 +4389,27 @@
         <v>2002</v>
       </c>
     </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>292</v>
+        <v>273</v>
       </c>
       <c r="B26" t="s">
-        <v>280</v>
+        <v>261</v>
       </c>
       <c r="C26">
         <v>0</v>
       </c>
       <c r="D26" t="s">
-        <v>462</v>
+        <v>442</v>
       </c>
       <c r="E26" t="s">
-        <v>290</v>
+        <v>271</v>
       </c>
       <c r="F26" t="s">
         <v>0</v>
       </c>
       <c r="G26" t="s">
-        <v>464</v>
+        <v>444</v>
       </c>
       <c r="H26" t="s">
         <v>0</v>
@@ -4371,13 +4418,13 @@
         <v>-268</v>
       </c>
       <c r="J26" t="s">
-        <v>441</v>
+        <v>421</v>
       </c>
       <c r="K26">
         <v>100</v>
       </c>
       <c r="L26" t="s">
-        <v>440</v>
+        <v>420</v>
       </c>
       <c r="M26">
         <v>-98</v>
@@ -4386,7 +4433,7 @@
         <v>-17</v>
       </c>
       <c r="O26" t="s">
-        <v>442</v>
+        <v>422</v>
       </c>
       <c r="Q26">
         <f t="shared" si="0"/>
@@ -4401,27 +4448,27 @@
         <v>2002</v>
       </c>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="B27" t="s">
-        <v>289</v>
+        <v>270</v>
       </c>
       <c r="C27">
         <v>1</v>
       </c>
       <c r="D27" t="s">
-        <v>443</v>
+        <v>423</v>
       </c>
       <c r="E27" t="s">
-        <v>292</v>
+        <v>273</v>
       </c>
       <c r="F27" t="s">
         <v>0</v>
       </c>
       <c r="G27" t="s">
-        <v>294</v>
+        <v>275</v>
       </c>
       <c r="H27" t="s">
         <v>0</v>
@@ -4430,13 +4477,13 @@
         <v>-98</v>
       </c>
       <c r="J27" t="s">
-        <v>223</v>
+        <v>205</v>
       </c>
       <c r="K27">
         <v>-17</v>
       </c>
       <c r="L27" t="s">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="M27">
         <v>1165</v>
@@ -4445,7 +4492,7 @@
         <v>1165</v>
       </c>
       <c r="O27" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="Q27">
         <f t="shared" si="0"/>
@@ -4460,27 +4507,27 @@
         <v>1975.5</v>
       </c>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>149</v>
+        <v>135</v>
       </c>
       <c r="B28" t="s">
-        <v>280</v>
+        <v>261</v>
       </c>
       <c r="C28">
         <v>0</v>
       </c>
       <c r="D28" t="s">
-        <v>445</v>
+        <v>425</v>
       </c>
       <c r="E28" t="s">
-        <v>292</v>
+        <v>273</v>
       </c>
       <c r="F28" t="s">
         <v>0</v>
       </c>
       <c r="G28" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="H28" t="s">
         <v>0</v>
@@ -4489,13 +4536,13 @@
         <v>-98</v>
       </c>
       <c r="J28" t="s">
-        <v>223</v>
+        <v>205</v>
       </c>
       <c r="K28">
         <v>-17</v>
       </c>
       <c r="L28" t="s">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="M28">
         <v>1753</v>
@@ -4504,7 +4551,7 @@
         <v>1851</v>
       </c>
       <c r="O28" t="s">
-        <v>297</v>
+        <v>278</v>
       </c>
       <c r="Q28">
         <f t="shared" si="0"/>
@@ -4519,27 +4566,27 @@
         <v>1975.5</v>
       </c>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A29" s="7" t="s">
-        <v>250</v>
+    <row r="29" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A29" s="5" t="s">
+        <v>231</v>
       </c>
       <c r="B29" t="s">
-        <v>280</v>
+        <v>261</v>
       </c>
       <c r="C29">
         <v>0</v>
       </c>
-      <c r="D29" s="7" t="s">
-        <v>469</v>
+      <c r="D29" s="5" t="s">
+        <v>449</v>
       </c>
       <c r="E29" t="s">
-        <v>148</v>
+        <v>134</v>
       </c>
       <c r="F29" t="s">
         <v>0</v>
       </c>
       <c r="G29" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="H29" t="s">
         <v>0</v>
@@ -4548,13 +4595,13 @@
         <v>-75</v>
       </c>
       <c r="J29" t="s">
-        <v>230</v>
+        <v>212</v>
       </c>
       <c r="K29">
         <v>-25</v>
       </c>
       <c r="L29" t="s">
-        <v>230</v>
+        <v>212</v>
       </c>
       <c r="M29">
         <v>-50</v>
@@ -4563,7 +4610,7 @@
         <v>50</v>
       </c>
       <c r="O29" t="s">
-        <v>470</v>
+        <v>450</v>
       </c>
       <c r="Q29">
         <f t="shared" si="0"/>
@@ -4578,27 +4625,27 @@
         <v>1968</v>
       </c>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="B30" t="s">
-        <v>289</v>
+        <v>270</v>
       </c>
       <c r="C30">
         <v>1</v>
       </c>
       <c r="D30" t="s">
-        <v>472</v>
+        <v>452</v>
       </c>
       <c r="E30" t="s">
-        <v>250</v>
+        <v>231</v>
       </c>
       <c r="F30" t="s">
         <v>0</v>
       </c>
       <c r="G30" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="H30" t="s">
         <v>0</v>
@@ -4607,13 +4654,13 @@
         <v>-50</v>
       </c>
       <c r="J30" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="K30">
         <v>50</v>
       </c>
       <c r="L30" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="M30">
         <v>600</v>
@@ -4622,7 +4669,7 @@
         <v>800</v>
       </c>
       <c r="O30" t="s">
-        <v>471</v>
+        <v>451</v>
       </c>
       <c r="Q30">
         <f t="shared" si="0"/>
@@ -4637,27 +4684,27 @@
         <v>1918</v>
       </c>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="B31" t="s">
-        <v>289</v>
+        <v>270</v>
       </c>
       <c r="C31">
         <v>1</v>
       </c>
       <c r="D31" t="s">
-        <v>474</v>
+        <v>454</v>
       </c>
       <c r="E31" t="s">
-        <v>250</v>
+        <v>231</v>
       </c>
       <c r="F31" t="s">
         <v>0</v>
       </c>
       <c r="G31" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="H31" t="s">
         <v>0</v>
@@ -4666,13 +4713,13 @@
         <v>-50</v>
       </c>
       <c r="J31" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="K31">
         <v>50</v>
       </c>
       <c r="L31" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="M31">
         <v>600</v>
@@ -4681,7 +4728,7 @@
         <v>800</v>
       </c>
       <c r="O31" t="s">
-        <v>471</v>
+        <v>451</v>
       </c>
       <c r="Q31">
         <f t="shared" si="0"/>
@@ -4696,27 +4743,27 @@
         <v>1918</v>
       </c>
     </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="B32" t="s">
-        <v>289</v>
+        <v>270</v>
       </c>
       <c r="C32">
         <v>1</v>
       </c>
       <c r="D32" t="s">
-        <v>473</v>
+        <v>453</v>
       </c>
       <c r="E32" t="s">
-        <v>250</v>
+        <v>231</v>
       </c>
       <c r="F32" t="s">
         <v>0</v>
       </c>
       <c r="G32" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="H32" t="s">
         <v>0</v>
@@ -4725,13 +4772,13 @@
         <v>-50</v>
       </c>
       <c r="J32" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="K32">
         <v>50</v>
       </c>
       <c r="L32" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="M32">
         <v>600</v>
@@ -4740,7 +4787,7 @@
         <v>800</v>
       </c>
       <c r="O32" t="s">
-        <v>471</v>
+        <v>451</v>
       </c>
       <c r="Q32">
         <f t="shared" si="0"/>
@@ -4755,27 +4802,27 @@
         <v>1918</v>
       </c>
     </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>302</v>
+        <v>283</v>
       </c>
       <c r="B33" t="s">
-        <v>289</v>
+        <v>270</v>
       </c>
       <c r="C33">
         <v>1</v>
       </c>
       <c r="D33" t="s">
-        <v>456</v>
+        <v>436</v>
       </c>
       <c r="E33" t="s">
-        <v>233</v>
+        <v>215</v>
       </c>
       <c r="F33" t="s">
         <v>0</v>
       </c>
       <c r="G33" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="H33" t="s">
         <v>0</v>
@@ -4784,13 +4831,13 @@
         <v>-100</v>
       </c>
       <c r="J33" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="K33">
         <v>100</v>
       </c>
       <c r="L33" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="M33">
         <v>1192</v>
@@ -4799,7 +4846,7 @@
         <v>1600</v>
       </c>
       <c r="O33" t="s">
-        <v>446</v>
+        <v>426</v>
       </c>
       <c r="Q33">
         <f t="shared" si="0"/>
@@ -4814,27 +4861,27 @@
         <v>1918</v>
       </c>
     </row>
-    <row r="34" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="B34" t="s">
-        <v>289</v>
+        <v>270</v>
       </c>
       <c r="C34">
         <v>1</v>
       </c>
       <c r="D34" t="s">
-        <v>473</v>
+        <v>453</v>
       </c>
       <c r="E34" t="s">
-        <v>250</v>
+        <v>231</v>
       </c>
       <c r="F34" t="s">
         <v>0</v>
       </c>
       <c r="G34" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="H34" t="s">
         <v>0</v>
@@ -4843,13 +4890,13 @@
         <v>-50</v>
       </c>
       <c r="J34" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="K34">
         <v>50</v>
       </c>
       <c r="L34" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="M34">
         <v>600</v>
@@ -4858,7 +4905,7 @@
         <v>800</v>
       </c>
       <c r="O34" t="s">
-        <v>471</v>
+        <v>451</v>
       </c>
       <c r="Q34">
         <f t="shared" si="0"/>
@@ -4873,27 +4920,27 @@
         <v>1918</v>
       </c>
     </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>184</v>
+        <v>169</v>
       </c>
       <c r="B35" t="s">
-        <v>289</v>
+        <v>270</v>
       </c>
       <c r="C35">
         <v>1</v>
       </c>
       <c r="D35" t="s">
-        <v>423</v>
+        <v>403</v>
       </c>
       <c r="E35" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="F35" t="s">
         <v>0</v>
       </c>
       <c r="G35" t="s">
-        <v>171</v>
+        <v>156</v>
       </c>
       <c r="H35" t="s">
         <v>0</v>
@@ -4902,13 +4949,13 @@
         <v>-327</v>
       </c>
       <c r="J35" t="s">
-        <v>415</v>
+        <v>395</v>
       </c>
       <c r="K35">
         <v>400</v>
       </c>
       <c r="L35" t="s">
-        <v>172</v>
+        <v>157</v>
       </c>
       <c r="M35">
         <v>1400</v>
@@ -4917,7 +4964,7 @@
         <v>1500</v>
       </c>
       <c r="O35" t="s">
-        <v>171</v>
+        <v>156</v>
       </c>
       <c r="Q35">
         <f t="shared" ref="Q35:Q66" si="3">1918-K35</f>
@@ -4932,27 +4979,27 @@
         <v>1881.5</v>
       </c>
     </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A36" s="7" t="s">
-        <v>433</v>
+    <row r="36" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A36" s="5" t="s">
+        <v>413</v>
       </c>
       <c r="B36" t="s">
-        <v>289</v>
+        <v>270</v>
       </c>
       <c r="C36">
         <v>1</v>
       </c>
-      <c r="D36" s="7" t="s">
-        <v>461</v>
+      <c r="D36" s="5" t="s">
+        <v>441</v>
       </c>
       <c r="E36" t="s">
-        <v>355</v>
+        <v>336</v>
       </c>
       <c r="F36" t="s">
         <v>0</v>
       </c>
       <c r="G36" t="s">
-        <v>459</v>
+        <v>439</v>
       </c>
       <c r="H36" t="s">
         <v>0</v>
@@ -4961,13 +5008,13 @@
         <v>50</v>
       </c>
       <c r="J36" t="s">
-        <v>460</v>
+        <v>440</v>
       </c>
       <c r="K36">
         <v>150</v>
       </c>
       <c r="L36" t="s">
-        <v>460</v>
+        <v>440</v>
       </c>
       <c r="M36">
         <v>800</v>
@@ -4976,7 +5023,7 @@
         <v>1600</v>
       </c>
       <c r="O36" t="s">
-        <v>458</v>
+        <v>438</v>
       </c>
       <c r="Q36">
         <f t="shared" si="3"/>
@@ -4991,42 +5038,42 @@
         <v>1818</v>
       </c>
     </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>125</v>
+        <v>112</v>
       </c>
       <c r="B37" t="s">
-        <v>289</v>
+        <v>270</v>
       </c>
       <c r="C37">
         <v>1</v>
       </c>
       <c r="D37" t="s">
-        <v>316</v>
+        <v>297</v>
       </c>
       <c r="E37" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="F37" t="s">
-        <v>595</v>
+        <v>575</v>
       </c>
       <c r="G37" t="s">
-        <v>124</v>
+        <v>111</v>
       </c>
       <c r="H37" t="s">
-        <v>596</v>
+        <v>576</v>
       </c>
       <c r="I37">
         <v>100</v>
       </c>
       <c r="J37" t="s">
-        <v>124</v>
+        <v>111</v>
       </c>
       <c r="K37">
         <v>200</v>
       </c>
       <c r="L37" t="s">
-        <v>124</v>
+        <v>111</v>
       </c>
       <c r="M37">
         <v>1450</v>
@@ -5035,7 +5082,7 @@
         <v>1500</v>
       </c>
       <c r="O37" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="Q37">
         <f t="shared" si="3"/>
@@ -5050,42 +5097,42 @@
         <v>1768</v>
       </c>
     </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>111</v>
+        <v>98</v>
       </c>
       <c r="B38" t="s">
-        <v>288</v>
+        <v>269</v>
       </c>
       <c r="C38">
         <v>1</v>
       </c>
       <c r="D38" t="s">
-        <v>541</v>
+        <v>521</v>
       </c>
       <c r="E38" t="s">
-        <v>389</v>
-      </c>
-      <c r="F38" s="7" t="s">
-        <v>152</v>
+        <v>370</v>
+      </c>
+      <c r="F38" s="5" t="s">
+        <v>138</v>
       </c>
       <c r="G38" t="s">
-        <v>514</v>
+        <v>494</v>
       </c>
       <c r="H38" t="s">
-        <v>513</v>
+        <v>493</v>
       </c>
       <c r="I38">
         <v>-100</v>
       </c>
       <c r="J38" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="K38">
         <v>400</v>
       </c>
       <c r="L38" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="M38" t="s">
         <v>0</v>
@@ -5094,7 +5141,7 @@
         <v>0</v>
       </c>
       <c r="O38" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="Q38">
         <f t="shared" si="3"/>
@@ -5109,42 +5156,42 @@
         <v>1768</v>
       </c>
     </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="B39" t="s">
-        <v>289</v>
+        <v>270</v>
       </c>
       <c r="C39">
         <v>1</v>
       </c>
       <c r="D39" t="s">
-        <v>315</v>
+        <v>296</v>
       </c>
       <c r="E39" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="F39" t="s">
-        <v>314</v>
+        <v>295</v>
       </c>
       <c r="G39" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="H39" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="I39">
         <v>50</v>
       </c>
       <c r="J39" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="K39">
         <v>500</v>
       </c>
       <c r="L39" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="M39">
         <v>1500</v>
@@ -5153,7 +5200,7 @@
         <v>1600</v>
       </c>
       <c r="O39" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="Q39">
         <f t="shared" si="3"/>
@@ -5168,27 +5215,27 @@
         <v>1643</v>
       </c>
     </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="B40" t="s">
-        <v>289</v>
+        <v>270</v>
       </c>
       <c r="C40">
         <v>1</v>
       </c>
       <c r="D40" t="s">
-        <v>444</v>
+        <v>424</v>
       </c>
       <c r="E40" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="F40" t="s">
         <v>0</v>
       </c>
       <c r="G40" t="s">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="H40" t="s">
         <v>0</v>
@@ -5197,13 +5244,13 @@
         <v>274</v>
       </c>
       <c r="J40" t="s">
-        <v>223</v>
+        <v>205</v>
       </c>
       <c r="K40">
         <v>301</v>
       </c>
       <c r="L40" t="s">
-        <v>223</v>
+        <v>205</v>
       </c>
       <c r="M40">
         <v>1165</v>
@@ -5212,7 +5259,7 @@
         <v>1165</v>
       </c>
       <c r="O40" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="Q40">
         <f t="shared" si="3"/>
@@ -5227,42 +5274,42 @@
         <v>1630.5</v>
       </c>
     </row>
-    <row r="41" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>515</v>
+        <v>495</v>
       </c>
       <c r="B41" t="s">
-        <v>280</v>
+        <v>261</v>
       </c>
       <c r="C41">
         <v>0</v>
       </c>
       <c r="D41" t="s">
-        <v>517</v>
+        <v>497</v>
       </c>
       <c r="E41" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="F41" t="s">
-        <v>520</v>
+        <v>500</v>
       </c>
       <c r="G41" t="s">
-        <v>516</v>
+        <v>496</v>
       </c>
       <c r="H41" t="s">
-        <v>516</v>
+        <v>496</v>
       </c>
       <c r="I41">
         <v>-500</v>
       </c>
       <c r="J41" t="s">
-        <v>518</v>
+        <v>498</v>
       </c>
       <c r="K41">
         <v>1100</v>
       </c>
       <c r="L41" t="s">
-        <v>521</v>
+        <v>501</v>
       </c>
       <c r="M41">
         <v>700</v>
@@ -5271,7 +5318,7 @@
         <v>1700</v>
       </c>
       <c r="O41" t="s">
-        <v>519</v>
+        <v>499</v>
       </c>
       <c r="Q41">
         <f t="shared" si="3"/>
@@ -5286,12 +5333,12 @@
         <v>1618</v>
       </c>
     </row>
-    <row r="42" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="B42" t="s">
-        <v>289</v>
+        <v>270</v>
       </c>
       <c r="C42">
         <v>1</v>
@@ -5300,28 +5347,28 @@
         <v>0</v>
       </c>
       <c r="E42" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="F42" t="s">
-        <v>265</v>
+        <v>246</v>
       </c>
       <c r="G42" t="s">
-        <v>264</v>
+        <v>245</v>
       </c>
       <c r="H42" t="s">
-        <v>266</v>
+        <v>247</v>
       </c>
       <c r="I42">
         <v>300</v>
       </c>
       <c r="J42" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="K42">
         <v>531</v>
       </c>
       <c r="L42" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="M42">
         <v>700</v>
@@ -5330,7 +5377,7 @@
         <v>800</v>
       </c>
       <c r="O42" t="s">
-        <v>61</v>
+        <v>49</v>
       </c>
       <c r="Q42">
         <f t="shared" si="3"/>
@@ -5345,27 +5392,27 @@
         <v>1502.5</v>
       </c>
     </row>
-    <row r="43" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>319</v>
+        <v>300</v>
       </c>
       <c r="B43" t="s">
-        <v>288</v>
+        <v>269</v>
       </c>
       <c r="C43">
         <v>1</v>
       </c>
       <c r="D43" t="s">
-        <v>601</v>
+        <v>581</v>
       </c>
       <c r="E43" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="F43" t="s">
         <v>0</v>
       </c>
       <c r="G43" t="s">
-        <v>318</v>
+        <v>299</v>
       </c>
       <c r="H43" t="s">
         <v>0</v>
@@ -5374,13 +5421,13 @@
         <v>400</v>
       </c>
       <c r="J43" t="s">
-        <v>599</v>
+        <v>579</v>
       </c>
       <c r="K43">
         <v>500</v>
       </c>
       <c r="L43" t="s">
-        <v>599</v>
+        <v>579</v>
       </c>
       <c r="M43" t="s">
         <v>0</v>
@@ -5389,7 +5436,7 @@
         <v>0</v>
       </c>
       <c r="O43" t="s">
-        <v>128</v>
+        <v>115</v>
       </c>
       <c r="Q43">
         <f t="shared" si="3"/>
@@ -5404,27 +5451,27 @@
         <v>1468</v>
       </c>
     </row>
-    <row r="44" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="B44" t="s">
-        <v>288</v>
+        <v>269</v>
       </c>
       <c r="C44">
         <v>1</v>
       </c>
       <c r="D44" t="s">
-        <v>600</v>
+        <v>580</v>
       </c>
       <c r="E44" t="s">
-        <v>125</v>
+        <v>112</v>
       </c>
       <c r="F44" t="s">
         <v>0</v>
       </c>
       <c r="G44" t="s">
-        <v>317</v>
+        <v>298</v>
       </c>
       <c r="H44" t="s">
         <v>0</v>
@@ -5433,13 +5480,13 @@
         <v>450</v>
       </c>
       <c r="J44" t="s">
-        <v>597</v>
+        <v>577</v>
       </c>
       <c r="K44">
         <v>600</v>
       </c>
       <c r="L44" t="s">
-        <v>216</v>
+        <v>198</v>
       </c>
       <c r="M44" t="s">
         <v>0</v>
@@ -5448,7 +5495,7 @@
         <v>0</v>
       </c>
       <c r="O44" t="s">
-        <v>598</v>
+        <v>578</v>
       </c>
       <c r="Q44">
         <f t="shared" si="3"/>
@@ -5463,42 +5510,42 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="45" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>257</v>
+        <v>238</v>
       </c>
       <c r="B45" t="s">
-        <v>288</v>
+        <v>269</v>
       </c>
       <c r="C45">
         <v>1</v>
       </c>
       <c r="D45" t="s">
-        <v>488</v>
+        <v>468</v>
       </c>
       <c r="E45" t="s">
-        <v>320</v>
+        <v>301</v>
       </c>
       <c r="F45" t="s">
-        <v>481</v>
+        <v>461</v>
       </c>
       <c r="G45" t="s">
-        <v>482</v>
+        <v>462</v>
       </c>
       <c r="H45" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
       <c r="I45">
         <v>550</v>
       </c>
       <c r="J45" t="s">
-        <v>237</v>
+        <v>219</v>
       </c>
       <c r="K45">
         <v>575</v>
       </c>
       <c r="L45" t="s">
-        <v>238</v>
+        <v>220</v>
       </c>
       <c r="M45" t="s">
         <v>0</v>
@@ -5507,7 +5554,7 @@
         <v>0</v>
       </c>
       <c r="O45" t="s">
-        <v>258</v>
+        <v>239</v>
       </c>
       <c r="Q45">
         <f t="shared" si="3"/>
@@ -5522,27 +5569,27 @@
         <v>1355.5</v>
       </c>
     </row>
-    <row r="46" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="B46" t="s">
-        <v>289</v>
+        <v>270</v>
       </c>
       <c r="C46">
         <v>1</v>
       </c>
       <c r="D46" t="s">
-        <v>150</v>
+        <v>136</v>
       </c>
       <c r="E46" t="s">
-        <v>320</v>
+        <v>301</v>
       </c>
       <c r="F46" t="s">
         <v>0</v>
       </c>
       <c r="G46" t="s">
-        <v>506</v>
+        <v>486</v>
       </c>
       <c r="H46" t="s">
         <v>0</v>
@@ -5551,13 +5598,13 @@
         <v>574</v>
       </c>
       <c r="J46" t="s">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="K46">
         <v>597</v>
       </c>
       <c r="L46" t="s">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="M46">
         <v>845</v>
@@ -5566,7 +5613,7 @@
         <v>845</v>
       </c>
       <c r="O46" t="s">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="Q46">
         <f t="shared" si="3"/>
@@ -5581,42 +5628,42 @@
         <v>1332.5</v>
       </c>
     </row>
-    <row r="47" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>509</v>
+        <v>489</v>
       </c>
       <c r="B47" t="s">
-        <v>289</v>
+        <v>270</v>
       </c>
       <c r="C47">
         <v>1</v>
       </c>
-      <c r="D47" s="6" t="s">
-        <v>510</v>
+      <c r="D47" s="4" t="s">
+        <v>490</v>
       </c>
       <c r="E47" t="s">
-        <v>320</v>
+        <v>301</v>
       </c>
       <c r="F47" t="s">
-        <v>484</v>
+        <v>464</v>
       </c>
       <c r="G47" t="s">
-        <v>485</v>
+        <v>465</v>
       </c>
       <c r="H47" t="s">
-        <v>486</v>
+        <v>466</v>
       </c>
       <c r="I47">
         <v>500</v>
       </c>
       <c r="J47" t="s">
-        <v>254</v>
+        <v>235</v>
       </c>
       <c r="K47">
         <v>682</v>
       </c>
       <c r="L47" t="s">
-        <v>254</v>
+        <v>235</v>
       </c>
       <c r="M47">
         <v>1392</v>
@@ -5625,7 +5672,7 @@
         <v>1910</v>
       </c>
       <c r="O47" t="s">
-        <v>254</v>
+        <v>235</v>
       </c>
       <c r="Q47">
         <f t="shared" si="3"/>
@@ -5640,42 +5687,42 @@
         <v>1327</v>
       </c>
     </row>
-    <row r="48" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="B48" t="s">
-        <v>280</v>
+        <v>261</v>
       </c>
       <c r="C48">
         <v>0</v>
       </c>
       <c r="D48" t="s">
-        <v>491</v>
+        <v>471</v>
       </c>
       <c r="E48" t="s">
-        <v>320</v>
+        <v>301</v>
       </c>
       <c r="F48" t="s">
-        <v>489</v>
+        <v>469</v>
       </c>
       <c r="G48" t="s">
-        <v>483</v>
+        <v>463</v>
       </c>
       <c r="H48" t="s">
-        <v>225</v>
+        <v>207</v>
       </c>
       <c r="I48">
         <v>530</v>
       </c>
       <c r="J48" t="s">
-        <v>490</v>
+        <v>470</v>
       </c>
       <c r="K48">
         <v>674</v>
       </c>
       <c r="L48" t="s">
-        <v>225</v>
+        <v>207</v>
       </c>
       <c r="M48">
         <v>674</v>
@@ -5684,7 +5731,7 @@
         <v>730</v>
       </c>
       <c r="O48" t="s">
-        <v>226</v>
+        <v>208</v>
       </c>
       <c r="Q48">
         <f t="shared" si="3"/>
@@ -5699,42 +5746,42 @@
         <v>1316</v>
       </c>
     </row>
-    <row r="49" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>501</v>
+        <v>481</v>
       </c>
       <c r="B49" t="s">
-        <v>289</v>
+        <v>270</v>
       </c>
       <c r="C49">
         <v>1</v>
       </c>
-      <c r="D49" s="6" t="s">
-        <v>504</v>
+      <c r="D49" s="4" t="s">
+        <v>484</v>
       </c>
       <c r="E49" t="s">
-        <v>320</v>
+        <v>301</v>
       </c>
       <c r="F49" t="s">
-        <v>484</v>
+        <v>464</v>
       </c>
       <c r="G49" t="s">
-        <v>485</v>
+        <v>465</v>
       </c>
       <c r="H49" t="s">
-        <v>486</v>
+        <v>466</v>
       </c>
       <c r="I49">
         <v>589</v>
       </c>
       <c r="J49" t="s">
-        <v>500</v>
+        <v>480</v>
       </c>
       <c r="K49">
         <v>702</v>
       </c>
       <c r="L49" t="s">
-        <v>500</v>
+        <v>480</v>
       </c>
       <c r="M49">
         <v>918</v>
@@ -5743,7 +5790,7 @@
         <v>1392</v>
       </c>
       <c r="O49" t="s">
-        <v>503</v>
+        <v>483</v>
       </c>
       <c r="Q49">
         <f t="shared" si="3"/>
@@ -5758,27 +5805,27 @@
         <v>1272.5</v>
       </c>
     </row>
-    <row r="50" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>147</v>
+        <v>133</v>
       </c>
       <c r="B50" t="s">
-        <v>288</v>
+        <v>269</v>
       </c>
       <c r="C50">
         <v>1</v>
       </c>
       <c r="D50" t="s">
-        <v>391</v>
+        <v>372</v>
       </c>
       <c r="E50" t="s">
-        <v>389</v>
+        <v>370</v>
       </c>
       <c r="F50" t="s">
         <v>0</v>
       </c>
       <c r="G50" t="s">
-        <v>390</v>
+        <v>371</v>
       </c>
       <c r="H50" t="s">
         <v>0</v>
@@ -5787,13 +5834,13 @@
         <v>650</v>
       </c>
       <c r="J50" t="s">
-        <v>395</v>
+        <v>376</v>
       </c>
       <c r="K50">
         <v>750</v>
       </c>
       <c r="L50" t="s">
-        <v>395</v>
+        <v>376</v>
       </c>
       <c r="M50" t="s">
         <v>0</v>
@@ -5802,7 +5849,7 @@
         <v>0</v>
       </c>
       <c r="O50" t="s">
-        <v>390</v>
+        <v>371</v>
       </c>
       <c r="Q50">
         <f t="shared" si="3"/>
@@ -5817,27 +5864,27 @@
         <v>1218</v>
       </c>
     </row>
-    <row r="51" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>224</v>
+        <v>206</v>
       </c>
       <c r="B51" t="s">
-        <v>289</v>
+        <v>270</v>
       </c>
       <c r="C51">
         <v>1</v>
       </c>
       <c r="D51" t="s">
-        <v>321</v>
+        <v>302</v>
       </c>
       <c r="E51" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="F51" t="s">
         <v>0</v>
       </c>
       <c r="G51" t="s">
-        <v>226</v>
+        <v>208</v>
       </c>
       <c r="H51" t="s">
         <v>0</v>
@@ -5846,13 +5893,13 @@
         <v>674</v>
       </c>
       <c r="J51" t="s">
-        <v>225</v>
+        <v>207</v>
       </c>
       <c r="K51">
         <v>730</v>
       </c>
       <c r="L51" t="s">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="M51">
         <v>796</v>
@@ -5861,7 +5908,7 @@
         <v>796</v>
       </c>
       <c r="O51" t="s">
-        <v>326</v>
+        <v>307</v>
       </c>
       <c r="Q51">
         <f t="shared" si="3"/>
@@ -5876,27 +5923,27 @@
         <v>1216</v>
       </c>
     </row>
-    <row r="52" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>229</v>
+        <v>211</v>
       </c>
       <c r="B52" t="s">
-        <v>280</v>
+        <v>261</v>
       </c>
       <c r="C52">
         <v>0</v>
       </c>
       <c r="D52" t="s">
-        <v>322</v>
+        <v>303</v>
       </c>
       <c r="E52" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="F52" t="s">
         <v>0</v>
       </c>
       <c r="G52" t="s">
-        <v>226</v>
+        <v>208</v>
       </c>
       <c r="H52" t="s">
         <v>0</v>
@@ -5905,13 +5952,13 @@
         <v>674</v>
       </c>
       <c r="J52" t="s">
-        <v>225</v>
+        <v>207</v>
       </c>
       <c r="K52">
         <v>730</v>
       </c>
       <c r="L52" t="s">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="M52">
         <v>750</v>
@@ -5920,7 +5967,7 @@
         <v>788</v>
       </c>
       <c r="O52" t="s">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="Q52">
         <f t="shared" si="3"/>
@@ -5935,42 +5982,42 @@
         <v>1216</v>
       </c>
     </row>
-    <row r="53" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>493</v>
+        <v>473</v>
       </c>
       <c r="B53" t="s">
-        <v>288</v>
+        <v>269</v>
       </c>
       <c r="C53">
         <v>1</v>
       </c>
       <c r="D53" t="s">
-        <v>494</v>
+        <v>474</v>
       </c>
       <c r="E53" t="s">
-        <v>320</v>
+        <v>301</v>
       </c>
       <c r="F53" t="s">
-        <v>496</v>
+        <v>476</v>
       </c>
       <c r="G53" t="s">
-        <v>497</v>
+        <v>477</v>
       </c>
       <c r="H53" t="s">
-        <v>492</v>
+        <v>472</v>
       </c>
       <c r="I53">
         <v>716</v>
       </c>
       <c r="J53" t="s">
-        <v>492</v>
+        <v>472</v>
       </c>
       <c r="K53">
         <v>779</v>
       </c>
       <c r="L53" t="s">
-        <v>492</v>
+        <v>472</v>
       </c>
       <c r="M53" t="s">
         <v>0</v>
@@ -5979,7 +6026,7 @@
         <v>0</v>
       </c>
       <c r="O53" t="s">
-        <v>495</v>
+        <v>475</v>
       </c>
       <c r="Q53">
         <f t="shared" si="3"/>
@@ -5994,27 +6041,27 @@
         <v>1170.5</v>
       </c>
     </row>
-    <row r="54" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="B54" t="s">
-        <v>288</v>
+        <v>269</v>
       </c>
       <c r="C54">
         <v>1</v>
       </c>
       <c r="D54" t="s">
-        <v>610</v>
+        <v>590</v>
       </c>
       <c r="E54" t="s">
-        <v>607</v>
+        <v>587</v>
       </c>
       <c r="F54" t="s">
         <v>0</v>
       </c>
       <c r="G54" t="s">
-        <v>612</v>
+        <v>592</v>
       </c>
       <c r="H54" t="s">
         <v>0</v>
@@ -6023,13 +6070,13 @@
         <v>700</v>
       </c>
       <c r="J54" t="s">
-        <v>611</v>
+        <v>591</v>
       </c>
       <c r="K54">
         <v>800</v>
       </c>
       <c r="L54" t="s">
-        <v>611</v>
+        <v>591</v>
       </c>
       <c r="M54" t="s">
         <v>0</v>
@@ -6038,7 +6085,7 @@
         <v>0</v>
       </c>
       <c r="O54" t="s">
-        <v>602</v>
+        <v>582</v>
       </c>
       <c r="Q54">
         <f t="shared" si="3"/>
@@ -6053,42 +6100,42 @@
         <v>1168</v>
       </c>
     </row>
-    <row r="55" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>152</v>
+        <v>138</v>
       </c>
       <c r="B55" t="s">
-        <v>280</v>
+        <v>261</v>
       </c>
       <c r="C55">
         <v>0</v>
       </c>
       <c r="D55" t="s">
-        <v>528</v>
+        <v>508</v>
       </c>
       <c r="E55" t="s">
-        <v>515</v>
+        <v>495</v>
       </c>
       <c r="F55" t="s">
-        <v>525</v>
+        <v>505</v>
       </c>
       <c r="G55" t="s">
-        <v>523</v>
+        <v>503</v>
       </c>
       <c r="H55" t="s">
-        <v>524</v>
+        <v>504</v>
       </c>
       <c r="I55">
         <v>500</v>
       </c>
       <c r="J55" t="s">
-        <v>522</v>
+        <v>502</v>
       </c>
       <c r="K55">
         <v>1000</v>
       </c>
       <c r="L55" t="s">
-        <v>112</v>
+        <v>99</v>
       </c>
       <c r="M55">
         <v>1287</v>
@@ -6097,7 +6144,7 @@
         <v>1387</v>
       </c>
       <c r="O55" t="s">
-        <v>526</v>
+        <v>506</v>
       </c>
       <c r="Q55">
         <f t="shared" si="3"/>
@@ -6112,42 +6159,42 @@
         <v>1168</v>
       </c>
     </row>
-    <row r="56" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>253</v>
+        <v>234</v>
       </c>
       <c r="B56" t="s">
-        <v>288</v>
+        <v>269</v>
       </c>
       <c r="C56">
         <v>1</v>
       </c>
       <c r="D56" t="s">
-        <v>512</v>
+        <v>492</v>
       </c>
       <c r="E56" t="s">
-        <v>320</v>
+        <v>301</v>
       </c>
       <c r="F56" t="s">
-        <v>509</v>
+        <v>489</v>
       </c>
       <c r="G56" t="s">
-        <v>507</v>
+        <v>487</v>
       </c>
       <c r="H56" t="s">
-        <v>254</v>
+        <v>235</v>
       </c>
       <c r="I56">
         <v>710</v>
       </c>
       <c r="J56" t="s">
-        <v>254</v>
+        <v>235</v>
       </c>
       <c r="K56">
         <v>803</v>
       </c>
       <c r="L56" t="s">
-        <v>242</v>
+        <v>223</v>
       </c>
       <c r="M56" t="s">
         <v>0</v>
@@ -6156,7 +6203,7 @@
         <v>0</v>
       </c>
       <c r="O56" t="s">
-        <v>243</v>
+        <v>224</v>
       </c>
       <c r="Q56">
         <f t="shared" si="3"/>
@@ -6171,27 +6218,27 @@
         <v>1161.5</v>
       </c>
     </row>
-    <row r="57" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>323</v>
+        <v>304</v>
       </c>
       <c r="B57" t="s">
-        <v>288</v>
+        <v>269</v>
       </c>
       <c r="C57">
         <v>1</v>
       </c>
       <c r="D57" t="s">
-        <v>498</v>
+        <v>478</v>
       </c>
       <c r="E57" t="s">
-        <v>227</v>
+        <v>209</v>
       </c>
       <c r="F57" t="s">
         <v>0</v>
       </c>
       <c r="G57" t="s">
-        <v>228</v>
+        <v>210</v>
       </c>
       <c r="H57" t="s">
         <v>0</v>
@@ -6200,13 +6247,13 @@
         <v>750</v>
       </c>
       <c r="J57" t="s">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="K57">
         <v>788</v>
       </c>
       <c r="L57" t="s">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="M57" t="s">
         <v>0</v>
@@ -6215,7 +6262,7 @@
         <v>0</v>
       </c>
       <c r="O57" t="s">
-        <v>324</v>
+        <v>305</v>
       </c>
       <c r="Q57">
         <f t="shared" si="3"/>
@@ -6230,27 +6277,27 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="58" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>325</v>
+        <v>306</v>
       </c>
       <c r="B58" t="s">
-        <v>288</v>
+        <v>269</v>
       </c>
       <c r="C58">
         <v>1</v>
       </c>
       <c r="D58" t="s">
-        <v>327</v>
+        <v>308</v>
       </c>
       <c r="E58" t="s">
-        <v>227</v>
+        <v>209</v>
       </c>
       <c r="F58" t="s">
         <v>0</v>
       </c>
       <c r="G58" t="s">
-        <v>328</v>
+        <v>309</v>
       </c>
       <c r="H58" t="s">
         <v>0</v>
@@ -6259,13 +6306,13 @@
         <v>750</v>
       </c>
       <c r="J58" t="s">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="K58">
         <v>790</v>
       </c>
       <c r="L58" t="s">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="M58" t="s">
         <v>0</v>
@@ -6274,7 +6321,7 @@
         <v>0</v>
       </c>
       <c r="O58" t="s">
-        <v>78</v>
+        <v>66</v>
       </c>
       <c r="Q58">
         <f t="shared" si="3"/>
@@ -6289,42 +6336,42 @@
         <v>1148</v>
       </c>
     </row>
-    <row r="59" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>241</v>
+        <v>222</v>
       </c>
       <c r="B59" t="s">
-        <v>288</v>
+        <v>269</v>
       </c>
       <c r="C59">
         <v>1</v>
       </c>
       <c r="D59" t="s">
-        <v>511</v>
+        <v>491</v>
       </c>
       <c r="E59" t="s">
-        <v>320</v>
+        <v>301</v>
       </c>
       <c r="F59" t="s">
+        <v>467</v>
+      </c>
+      <c r="G59" t="s">
         <v>487</v>
       </c>
-      <c r="G59" t="s">
-        <v>507</v>
-      </c>
       <c r="H59" t="s">
-        <v>502</v>
+        <v>482</v>
       </c>
       <c r="I59">
         <v>740</v>
       </c>
       <c r="J59" t="s">
-        <v>502</v>
+        <v>482</v>
       </c>
       <c r="K59">
         <v>806</v>
       </c>
       <c r="L59" t="s">
-        <v>505</v>
+        <v>485</v>
       </c>
       <c r="M59" t="s">
         <v>0</v>
@@ -6333,7 +6380,7 @@
         <v>0</v>
       </c>
       <c r="O59" t="s">
-        <v>244</v>
+        <v>225</v>
       </c>
       <c r="Q59">
         <f t="shared" si="3"/>
@@ -6348,27 +6395,27 @@
         <v>1145</v>
       </c>
     </row>
-    <row r="60" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>130</v>
+        <v>117</v>
       </c>
       <c r="B60" t="s">
-        <v>289</v>
+        <v>270</v>
       </c>
       <c r="C60">
         <v>1</v>
       </c>
       <c r="D60" t="s">
-        <v>330</v>
+        <v>311</v>
       </c>
       <c r="E60" t="s">
-        <v>125</v>
+        <v>112</v>
       </c>
       <c r="F60" t="s">
         <v>0</v>
       </c>
       <c r="G60" t="s">
-        <v>329</v>
+        <v>310</v>
       </c>
       <c r="H60" t="s">
         <v>0</v>
@@ -6377,13 +6424,13 @@
         <v>800</v>
       </c>
       <c r="J60" t="s">
-        <v>126</v>
+        <v>113</v>
       </c>
       <c r="K60">
         <v>900</v>
       </c>
       <c r="L60" t="s">
-        <v>126</v>
+        <v>113</v>
       </c>
       <c r="M60">
         <v>1200</v>
@@ -6392,7 +6439,7 @@
         <v>1300</v>
       </c>
       <c r="O60" t="s">
-        <v>126</v>
+        <v>113</v>
       </c>
       <c r="Q60">
         <f t="shared" si="3"/>
@@ -6407,42 +6454,42 @@
         <v>1068</v>
       </c>
     </row>
-    <row r="61" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>127</v>
+        <v>114</v>
       </c>
       <c r="B61" t="s">
-        <v>288</v>
+        <v>269</v>
       </c>
       <c r="C61">
         <v>1</v>
       </c>
       <c r="D61" t="s">
-        <v>615</v>
+        <v>595</v>
       </c>
       <c r="E61" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="F61" t="s">
-        <v>616</v>
+        <v>596</v>
       </c>
       <c r="G61" t="s">
-        <v>128</v>
+        <v>115</v>
       </c>
       <c r="H61" t="s">
-        <v>606</v>
+        <v>586</v>
       </c>
       <c r="I61">
         <v>800</v>
       </c>
       <c r="J61" t="s">
-        <v>219</v>
+        <v>201</v>
       </c>
       <c r="K61">
         <v>900</v>
       </c>
       <c r="L61" t="s">
-        <v>219</v>
+        <v>201</v>
       </c>
       <c r="M61" t="s">
         <v>0</v>
@@ -6451,7 +6498,7 @@
         <v>0</v>
       </c>
       <c r="O61" t="s">
-        <v>606</v>
+        <v>586</v>
       </c>
       <c r="Q61">
         <f t="shared" si="3"/>
@@ -6466,42 +6513,42 @@
         <v>1068</v>
       </c>
     </row>
-    <row r="62" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>153</v>
+        <v>139</v>
       </c>
       <c r="B62" t="s">
-        <v>289</v>
+        <v>270</v>
       </c>
       <c r="C62">
         <v>1</v>
       </c>
       <c r="D62" t="s">
-        <v>613</v>
+        <v>593</v>
       </c>
       <c r="E62" t="s">
-        <v>607</v>
+        <v>587</v>
       </c>
       <c r="F62" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="G62" t="s">
-        <v>603</v>
+        <v>583</v>
       </c>
       <c r="H62" t="s">
-        <v>602</v>
+        <v>582</v>
       </c>
       <c r="I62">
         <v>800</v>
       </c>
       <c r="J62" t="s">
-        <v>602</v>
+        <v>582</v>
       </c>
       <c r="K62">
         <v>900</v>
       </c>
       <c r="L62" t="s">
-        <v>602</v>
+        <v>582</v>
       </c>
       <c r="M62">
         <v>1200</v>
@@ -6510,7 +6557,7 @@
         <v>1300</v>
       </c>
       <c r="O62" t="s">
-        <v>614</v>
+        <v>594</v>
       </c>
       <c r="Q62">
         <f t="shared" si="3"/>
@@ -6525,42 +6572,42 @@
         <v>1068</v>
       </c>
     </row>
-    <row r="63" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>359</v>
+        <v>340</v>
       </c>
       <c r="B63" t="s">
-        <v>288</v>
+        <v>269</v>
       </c>
       <c r="C63">
         <v>1</v>
       </c>
       <c r="D63" t="s">
-        <v>618</v>
+        <v>598</v>
       </c>
       <c r="E63" t="s">
-        <v>355</v>
+        <v>336</v>
       </c>
       <c r="F63" t="s">
-        <v>621</v>
+        <v>601</v>
       </c>
       <c r="G63" t="s">
-        <v>356</v>
+        <v>337</v>
       </c>
       <c r="H63" t="s">
-        <v>625</v>
+        <v>605</v>
       </c>
       <c r="I63">
         <v>779</v>
       </c>
       <c r="J63" t="s">
-        <v>479</v>
+        <v>459</v>
       </c>
       <c r="K63">
         <v>1055</v>
       </c>
       <c r="L63" t="s">
-        <v>619</v>
+        <v>599</v>
       </c>
       <c r="M63" t="s">
         <v>0</v>
@@ -6569,7 +6616,7 @@
         <v>0</v>
       </c>
       <c r="O63" t="s">
-        <v>356</v>
+        <v>337</v>
       </c>
       <c r="Q63">
         <f t="shared" si="3"/>
@@ -6584,42 +6631,42 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="64" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>212</v>
+        <v>196</v>
       </c>
       <c r="B64" t="s">
-        <v>289</v>
+        <v>270</v>
       </c>
       <c r="C64">
         <v>1</v>
       </c>
       <c r="D64" t="s">
-        <v>475</v>
+        <v>455</v>
       </c>
       <c r="E64" t="s">
-        <v>355</v>
+        <v>336</v>
       </c>
       <c r="F64" t="s">
-        <v>621</v>
+        <v>601</v>
       </c>
       <c r="G64" t="s">
-        <v>623</v>
+        <v>603</v>
       </c>
       <c r="H64" t="s">
-        <v>79</v>
+        <v>67</v>
       </c>
       <c r="I64">
         <v>779</v>
       </c>
       <c r="J64" t="s">
-        <v>622</v>
+        <v>602</v>
       </c>
       <c r="K64">
         <v>1057</v>
       </c>
       <c r="L64" t="s">
-        <v>79</v>
+        <v>67</v>
       </c>
       <c r="M64">
         <v>1409</v>
@@ -6628,7 +6675,7 @@
         <v>1642</v>
       </c>
       <c r="O64" t="s">
-        <v>85</v>
+        <v>73</v>
       </c>
       <c r="Q64">
         <f t="shared" si="3"/>
@@ -6643,42 +6690,42 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="65" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>358</v>
+        <v>339</v>
       </c>
       <c r="B65" t="s">
-        <v>288</v>
+        <v>269</v>
       </c>
       <c r="C65">
         <v>1</v>
       </c>
       <c r="D65" t="s">
-        <v>476</v>
+        <v>456</v>
       </c>
       <c r="E65" t="s">
-        <v>355</v>
+        <v>336</v>
       </c>
       <c r="F65" t="s">
-        <v>624</v>
+        <v>604</v>
       </c>
       <c r="G65" t="s">
-        <v>626</v>
+        <v>606</v>
       </c>
       <c r="H65" t="s">
-        <v>79</v>
+        <v>67</v>
       </c>
       <c r="I65">
         <v>779</v>
       </c>
       <c r="J65" t="s">
-        <v>480</v>
+        <v>460</v>
       </c>
       <c r="K65">
         <v>1102</v>
       </c>
       <c r="L65" t="s">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="M65" t="s">
         <v>0</v>
@@ -6687,7 +6734,7 @@
         <v>0</v>
       </c>
       <c r="O65" t="s">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="Q65">
         <f t="shared" si="3"/>
@@ -6702,27 +6749,27 @@
         <v>977.5</v>
       </c>
     </row>
-    <row r="66" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>156</v>
+        <v>142</v>
       </c>
       <c r="B66" t="s">
-        <v>288</v>
+        <v>269</v>
       </c>
       <c r="C66">
         <v>1</v>
       </c>
       <c r="D66" t="s">
-        <v>535</v>
+        <v>515</v>
       </c>
       <c r="E66" t="s">
-        <v>515</v>
+        <v>495</v>
       </c>
       <c r="F66" t="s">
         <v>0</v>
       </c>
       <c r="G66" t="s">
-        <v>532</v>
+        <v>512</v>
       </c>
       <c r="H66" t="s">
         <v>0</v>
@@ -6731,13 +6778,13 @@
         <v>500</v>
       </c>
       <c r="J66" t="s">
-        <v>534</v>
+        <v>514</v>
       </c>
       <c r="K66">
         <v>1533</v>
       </c>
       <c r="L66" t="s">
-        <v>533</v>
+        <v>513</v>
       </c>
       <c r="M66" t="s">
         <v>0</v>
@@ -6746,7 +6793,7 @@
         <v>0</v>
       </c>
       <c r="O66" t="s">
-        <v>533</v>
+        <v>513</v>
       </c>
       <c r="Q66">
         <f t="shared" si="3"/>
@@ -6761,42 +6808,42 @@
         <v>901.5</v>
       </c>
     </row>
-    <row r="67" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B67" t="s">
-        <v>288</v>
+        <v>269</v>
       </c>
       <c r="C67">
         <v>1</v>
       </c>
       <c r="D67" t="s">
-        <v>263</v>
+        <v>244</v>
       </c>
       <c r="E67" t="s">
-        <v>257</v>
+        <v>238</v>
       </c>
       <c r="F67" t="s">
-        <v>259</v>
+        <v>240</v>
       </c>
       <c r="G67" t="s">
-        <v>260</v>
+        <v>241</v>
       </c>
       <c r="H67" t="s">
-        <v>260</v>
+        <v>241</v>
       </c>
       <c r="I67">
         <v>891</v>
       </c>
       <c r="J67" t="s">
-        <v>261</v>
+        <v>242</v>
       </c>
       <c r="K67">
         <v>1215</v>
       </c>
       <c r="L67" t="s">
-        <v>262</v>
+        <v>243</v>
       </c>
       <c r="M67" t="s">
         <v>0</v>
@@ -6805,7 +6852,7 @@
         <v>0</v>
       </c>
       <c r="O67" t="s">
-        <v>77</v>
+        <v>65</v>
       </c>
       <c r="Q67">
         <f t="shared" ref="Q67:Q98" si="6">1918-K67</f>
@@ -6820,12 +6867,12 @@
         <v>865</v>
       </c>
     </row>
-    <row r="68" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>628</v>
+        <v>608</v>
       </c>
       <c r="B68" t="s">
-        <v>288</v>
+        <v>269</v>
       </c>
       <c r="C68">
         <v>1</v>
@@ -6834,25 +6881,25 @@
         <v>0</v>
       </c>
       <c r="E68" t="s">
-        <v>355</v>
+        <v>336</v>
       </c>
       <c r="F68" t="s">
         <v>0</v>
       </c>
       <c r="G68" t="s">
-        <v>629</v>
+        <v>609</v>
       </c>
       <c r="I68">
         <v>779</v>
       </c>
       <c r="J68" t="s">
-        <v>630</v>
+        <v>610</v>
       </c>
       <c r="K68">
         <v>1361</v>
       </c>
       <c r="L68" t="s">
-        <v>629</v>
+        <v>609</v>
       </c>
       <c r="M68" t="s">
         <v>0</v>
@@ -6861,7 +6908,7 @@
         <v>0</v>
       </c>
       <c r="O68" t="s">
-        <v>631</v>
+        <v>611</v>
       </c>
       <c r="Q68">
         <f t="shared" si="6"/>
@@ -6876,12 +6923,12 @@
         <v>848</v>
       </c>
     </row>
-    <row r="69" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>97</v>
+        <v>85</v>
       </c>
       <c r="B69" t="s">
-        <v>289</v>
+        <v>270</v>
       </c>
       <c r="C69">
         <v>1</v>
@@ -6890,13 +6937,13 @@
         <v>0</v>
       </c>
       <c r="E69" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="F69" t="s">
         <v>0</v>
       </c>
       <c r="G69" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="H69" t="s">
         <v>0</v>
@@ -6905,13 +6952,13 @@
         <v>1100</v>
       </c>
       <c r="J69" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="K69">
         <v>1150</v>
       </c>
       <c r="L69" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="M69">
         <v>1600</v>
@@ -6920,7 +6967,7 @@
         <v>1700</v>
       </c>
       <c r="O69" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="Q69">
         <f t="shared" si="6"/>
@@ -6935,42 +6982,42 @@
         <v>793</v>
       </c>
     </row>
-    <row r="70" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>154</v>
+        <v>140</v>
       </c>
       <c r="B70" t="s">
-        <v>288</v>
+        <v>269</v>
       </c>
       <c r="C70">
         <v>1</v>
       </c>
-      <c r="D70" s="6" t="s">
-        <v>633</v>
+      <c r="D70" s="4" t="s">
+        <v>613</v>
       </c>
       <c r="E70" t="s">
-        <v>212</v>
+        <v>196</v>
       </c>
       <c r="F70" t="s">
-        <v>624</v>
+        <v>604</v>
       </c>
       <c r="G70" t="s">
-        <v>81</v>
+        <v>69</v>
       </c>
       <c r="H70" t="s">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="I70">
         <v>1109</v>
       </c>
       <c r="J70" t="s">
-        <v>632</v>
+        <v>612</v>
       </c>
       <c r="K70">
         <v>1153</v>
       </c>
       <c r="L70" t="s">
-        <v>81</v>
+        <v>69</v>
       </c>
       <c r="M70" t="s">
         <v>0</v>
@@ -6979,7 +7026,7 @@
         <v>0</v>
       </c>
       <c r="O70" t="s">
-        <v>82</v>
+        <v>70</v>
       </c>
       <c r="Q70">
         <f t="shared" si="6"/>
@@ -6994,42 +7041,42 @@
         <v>787</v>
       </c>
     </row>
-    <row r="71" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>636</v>
+        <v>616</v>
       </c>
       <c r="B71" t="s">
-        <v>289</v>
+        <v>270</v>
       </c>
       <c r="C71">
         <v>1</v>
       </c>
       <c r="D71" t="s">
-        <v>637</v>
+        <v>617</v>
       </c>
       <c r="E71" t="s">
-        <v>257</v>
+        <v>238</v>
       </c>
       <c r="F71" t="s">
-        <v>255</v>
+        <v>236</v>
       </c>
       <c r="G71" t="s">
-        <v>256</v>
+        <v>237</v>
       </c>
       <c r="H71" t="s">
-        <v>256</v>
+        <v>237</v>
       </c>
       <c r="I71">
         <v>1133</v>
       </c>
       <c r="J71" t="s">
-        <v>256</v>
+        <v>237</v>
       </c>
       <c r="K71">
         <v>1133</v>
       </c>
       <c r="L71" t="s">
-        <v>256</v>
+        <v>237</v>
       </c>
       <c r="M71">
         <v>1322</v>
@@ -7038,7 +7085,7 @@
         <v>1322</v>
       </c>
       <c r="O71" t="s">
-        <v>256</v>
+        <v>237</v>
       </c>
       <c r="Q71">
         <f t="shared" si="6"/>
@@ -7053,42 +7100,42 @@
         <v>785</v>
       </c>
     </row>
-    <row r="72" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>331</v>
+        <v>312</v>
       </c>
       <c r="B72" t="s">
-        <v>288</v>
+        <v>269</v>
       </c>
       <c r="C72">
         <v>1</v>
       </c>
       <c r="D72" t="s">
-        <v>332</v>
+        <v>313</v>
       </c>
       <c r="E72" t="s">
-        <v>130</v>
+        <v>117</v>
       </c>
       <c r="F72" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="G72" t="s">
-        <v>605</v>
+        <v>585</v>
       </c>
       <c r="H72" t="s">
-        <v>129</v>
+        <v>116</v>
       </c>
       <c r="I72">
         <v>1150</v>
       </c>
       <c r="J72" t="s">
-        <v>598</v>
+        <v>578</v>
       </c>
       <c r="K72">
         <v>1167</v>
       </c>
       <c r="L72" t="s">
-        <v>604</v>
+        <v>584</v>
       </c>
       <c r="M72" t="s">
         <v>0</v>
@@ -7097,7 +7144,7 @@
         <v>0</v>
       </c>
       <c r="O72" t="s">
-        <v>131</v>
+        <v>118</v>
       </c>
       <c r="Q72">
         <f t="shared" si="6"/>
@@ -7112,42 +7159,42 @@
         <v>759.5</v>
       </c>
     </row>
-    <row r="73" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>249</v>
+        <v>230</v>
       </c>
       <c r="B73" t="s">
-        <v>280</v>
+        <v>261</v>
       </c>
       <c r="C73">
         <v>0</v>
       </c>
       <c r="D73" t="s">
-        <v>335</v>
+        <v>316</v>
       </c>
       <c r="E73" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="F73" t="s">
-        <v>333</v>
+        <v>314</v>
       </c>
       <c r="G73" t="s">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="H73" t="s">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="I73">
         <v>1175</v>
       </c>
       <c r="J73" t="s">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="K73">
         <v>1175</v>
       </c>
       <c r="L73" t="s">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="M73">
         <v>1212</v>
@@ -7156,7 +7203,7 @@
         <v>1238</v>
       </c>
       <c r="O73" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="Q73">
         <f t="shared" si="6"/>
@@ -7171,27 +7218,27 @@
         <v>743</v>
       </c>
     </row>
-    <row r="74" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="B74" t="s">
-        <v>289</v>
+        <v>270</v>
       </c>
       <c r="C74">
         <v>1</v>
       </c>
       <c r="D74" t="s">
-        <v>337</v>
+        <v>318</v>
       </c>
       <c r="E74" t="s">
-        <v>249</v>
+        <v>230</v>
       </c>
       <c r="F74" t="s">
         <v>0</v>
       </c>
       <c r="G74" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="H74" t="s">
         <v>0</v>
@@ -7200,13 +7247,13 @@
         <v>1212</v>
       </c>
       <c r="J74" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="K74">
         <v>1227</v>
       </c>
       <c r="L74" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="M74">
         <v>1400</v>
@@ -7215,7 +7262,7 @@
         <v>1500</v>
       </c>
       <c r="O74" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="Q74">
         <f t="shared" si="6"/>
@@ -7230,27 +7277,27 @@
         <v>698.5</v>
       </c>
     </row>
-    <row r="75" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>334</v>
+        <v>315</v>
       </c>
       <c r="B75" t="s">
-        <v>288</v>
+        <v>269</v>
       </c>
       <c r="C75">
         <v>1</v>
       </c>
       <c r="D75" t="s">
-        <v>336</v>
+        <v>317</v>
       </c>
       <c r="E75" t="s">
-        <v>249</v>
+        <v>230</v>
       </c>
       <c r="F75" t="s">
         <v>0</v>
       </c>
       <c r="G75" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="H75" t="s">
         <v>0</v>
@@ -7259,13 +7306,13 @@
         <v>1212</v>
       </c>
       <c r="J75" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="K75">
         <v>1238</v>
       </c>
       <c r="L75" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="M75" t="s">
         <v>0</v>
@@ -7274,7 +7321,7 @@
         <v>0</v>
       </c>
       <c r="O75" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="Q75">
         <f t="shared" si="6"/>
@@ -7289,42 +7336,42 @@
         <v>693</v>
       </c>
     </row>
-    <row r="76" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="B76" t="s">
-        <v>288</v>
+        <v>269</v>
       </c>
       <c r="C76">
         <v>1</v>
       </c>
       <c r="D76" t="s">
-        <v>339</v>
+        <v>320</v>
       </c>
       <c r="E76" t="s">
-        <v>249</v>
+        <v>230</v>
       </c>
       <c r="F76" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="G76" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="H76" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="I76">
         <v>1212</v>
       </c>
       <c r="J76" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="K76">
         <v>1247</v>
       </c>
       <c r="L76" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="M76" t="s">
         <v>0</v>
@@ -7333,7 +7380,7 @@
         <v>0</v>
       </c>
       <c r="O76" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="Q76">
         <f t="shared" si="6"/>
@@ -7348,27 +7395,27 @@
         <v>688.5</v>
       </c>
     </row>
-    <row r="77" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>115</v>
+        <v>102</v>
       </c>
       <c r="B77" t="s">
-        <v>288</v>
+        <v>269</v>
       </c>
       <c r="C77">
         <v>1</v>
       </c>
       <c r="D77" t="s">
-        <v>549</v>
+        <v>529</v>
       </c>
       <c r="E77" t="s">
-        <v>267</v>
+        <v>248</v>
       </c>
       <c r="F77" t="s">
         <v>0</v>
       </c>
       <c r="G77" t="s">
-        <v>362</v>
+        <v>343</v>
       </c>
       <c r="H77" t="s">
         <v>0</v>
@@ -7377,13 +7424,13 @@
         <v>1200</v>
       </c>
       <c r="J77" t="s">
-        <v>113</v>
+        <v>100</v>
       </c>
       <c r="K77">
         <v>1300</v>
       </c>
       <c r="L77" t="s">
-        <v>113</v>
+        <v>100</v>
       </c>
       <c r="M77" t="s">
         <v>0</v>
@@ -7392,7 +7439,7 @@
         <v>0</v>
       </c>
       <c r="O77" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="Q77">
         <f t="shared" si="6"/>
@@ -7407,27 +7454,27 @@
         <v>668</v>
       </c>
     </row>
-    <row r="78" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>267</v>
+        <v>248</v>
       </c>
       <c r="B78" t="s">
-        <v>280</v>
+        <v>261</v>
       </c>
       <c r="C78">
         <v>0</v>
       </c>
       <c r="D78" t="s">
-        <v>546</v>
+        <v>526</v>
       </c>
       <c r="E78" t="s">
-        <v>515</v>
+        <v>495</v>
       </c>
       <c r="F78" t="s">
         <v>0</v>
       </c>
       <c r="G78" t="s">
-        <v>542</v>
+        <v>522</v>
       </c>
       <c r="H78" t="s">
         <v>0</v>
@@ -7436,13 +7483,13 @@
         <v>1200</v>
       </c>
       <c r="J78" t="s">
-        <v>113</v>
+        <v>100</v>
       </c>
       <c r="K78">
         <v>1300</v>
       </c>
       <c r="L78" t="s">
-        <v>113</v>
+        <v>100</v>
       </c>
       <c r="M78">
         <v>1200</v>
@@ -7451,7 +7498,7 @@
         <v>1300</v>
       </c>
       <c r="O78" t="s">
-        <v>362</v>
+        <v>343</v>
       </c>
       <c r="Q78">
         <f t="shared" si="6"/>
@@ -7466,42 +7513,42 @@
         <v>668</v>
       </c>
     </row>
-    <row r="79" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>213</v>
+        <v>197</v>
       </c>
       <c r="B79" t="s">
-        <v>288</v>
+        <v>269</v>
       </c>
       <c r="C79">
         <v>1</v>
       </c>
       <c r="D79" t="s">
-        <v>609</v>
+        <v>589</v>
       </c>
       <c r="E79" t="s">
-        <v>127</v>
+        <v>114</v>
       </c>
       <c r="F79" t="s">
-        <v>608</v>
+        <v>588</v>
       </c>
       <c r="G79" t="s">
-        <v>217</v>
+        <v>199</v>
       </c>
       <c r="H79" t="s">
-        <v>218</v>
+        <v>200</v>
       </c>
       <c r="I79">
         <v>1100</v>
       </c>
       <c r="J79" t="s">
-        <v>219</v>
+        <v>201</v>
       </c>
       <c r="K79">
         <v>1400</v>
       </c>
       <c r="L79" t="s">
-        <v>219</v>
+        <v>201</v>
       </c>
       <c r="M79" t="s">
         <v>0</v>
@@ -7510,7 +7557,7 @@
         <v>0</v>
       </c>
       <c r="O79" t="s">
-        <v>219</v>
+        <v>201</v>
       </c>
       <c r="Q79">
         <f t="shared" si="6"/>
@@ -7525,27 +7572,27 @@
         <v>668</v>
       </c>
     </row>
-    <row r="80" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A80" s="7" t="s">
-        <v>554</v>
+    <row r="80" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A80" s="5" t="s">
+        <v>534</v>
       </c>
       <c r="B80" t="s">
-        <v>288</v>
+        <v>269</v>
       </c>
       <c r="C80">
         <v>1</v>
       </c>
       <c r="D80" t="s">
-        <v>555</v>
+        <v>535</v>
       </c>
       <c r="E80" t="s">
-        <v>515</v>
+        <v>495</v>
       </c>
       <c r="F80" t="s">
         <v>0</v>
       </c>
       <c r="G80" t="s">
-        <v>556</v>
+        <v>536</v>
       </c>
       <c r="H80" t="s">
         <v>0</v>
@@ -7554,13 +7601,13 @@
         <v>1200</v>
       </c>
       <c r="J80" t="s">
-        <v>557</v>
+        <v>537</v>
       </c>
       <c r="K80">
         <v>1300</v>
       </c>
       <c r="L80" t="s">
-        <v>557</v>
+        <v>537</v>
       </c>
       <c r="M80" t="s">
         <v>0</v>
@@ -7569,7 +7616,7 @@
         <v>0</v>
       </c>
       <c r="O80" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="Q80">
         <f t="shared" si="6"/>
@@ -7584,27 +7631,27 @@
         <v>668</v>
       </c>
     </row>
-    <row r="81" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>547</v>
+        <v>527</v>
       </c>
       <c r="B81" t="s">
-        <v>288</v>
+        <v>269</v>
       </c>
       <c r="C81">
         <v>1</v>
       </c>
       <c r="D81" t="s">
-        <v>548</v>
+        <v>528</v>
       </c>
       <c r="E81" t="s">
-        <v>545</v>
+        <v>525</v>
       </c>
       <c r="F81" t="s">
         <v>0</v>
       </c>
       <c r="G81" t="s">
-        <v>362</v>
+        <v>343</v>
       </c>
       <c r="H81" t="s">
         <v>0</v>
@@ -7613,13 +7660,13 @@
         <v>1200</v>
       </c>
       <c r="J81" t="s">
-        <v>113</v>
+        <v>100</v>
       </c>
       <c r="K81">
         <v>1300</v>
       </c>
       <c r="L81" t="s">
-        <v>113</v>
+        <v>100</v>
       </c>
       <c r="M81" t="s">
         <v>0</v>
@@ -7628,7 +7675,7 @@
         <v>0</v>
       </c>
       <c r="O81" t="s">
-        <v>201</v>
+        <v>185</v>
       </c>
       <c r="Q81">
         <f t="shared" si="6"/>
@@ -7643,27 +7690,27 @@
         <v>668</v>
       </c>
     </row>
-    <row r="82" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>353</v>
+        <v>334</v>
       </c>
       <c r="B82" t="s">
-        <v>280</v>
+        <v>261</v>
       </c>
       <c r="C82">
         <v>0</v>
       </c>
       <c r="D82" t="s">
-        <v>354</v>
+        <v>335</v>
       </c>
       <c r="E82" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="F82" t="s">
         <v>0</v>
       </c>
       <c r="G82" t="s">
-        <v>342</v>
+        <v>323</v>
       </c>
       <c r="H82" t="s">
         <v>0</v>
@@ -7672,13 +7719,13 @@
         <v>1253</v>
       </c>
       <c r="J82" t="s">
-        <v>343</v>
+        <v>324</v>
       </c>
       <c r="K82">
         <v>1253</v>
       </c>
       <c r="L82" t="s">
-        <v>343</v>
+        <v>324</v>
       </c>
       <c r="M82">
         <v>1282</v>
@@ -7687,7 +7734,7 @@
         <v>1600</v>
       </c>
       <c r="O82" t="s">
-        <v>346</v>
+        <v>327</v>
       </c>
       <c r="Q82">
         <f t="shared" si="6"/>
@@ -7702,27 +7749,27 @@
         <v>665</v>
       </c>
     </row>
-    <row r="83" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>75</v>
+        <v>63</v>
       </c>
       <c r="B83" t="s">
-        <v>288</v>
+        <v>269</v>
       </c>
       <c r="C83">
         <v>1</v>
       </c>
       <c r="D83" t="s">
-        <v>338</v>
+        <v>319</v>
       </c>
       <c r="E83" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="F83" t="s">
         <v>0</v>
       </c>
       <c r="G83" t="s">
-        <v>106</v>
+        <v>93</v>
       </c>
       <c r="H83" t="s">
         <v>0</v>
@@ -7731,13 +7778,13 @@
         <v>1274</v>
       </c>
       <c r="J83" t="s">
-        <v>104</v>
+        <v>91</v>
       </c>
       <c r="K83">
         <v>1278</v>
       </c>
       <c r="L83" t="s">
-        <v>105</v>
+        <v>92</v>
       </c>
       <c r="M83" t="s">
         <v>0</v>
@@ -7746,7 +7793,7 @@
         <v>0</v>
       </c>
       <c r="O83" t="s">
-        <v>105</v>
+        <v>92</v>
       </c>
       <c r="Q83">
         <f t="shared" si="6"/>
@@ -7761,27 +7808,27 @@
         <v>642</v>
       </c>
     </row>
-    <row r="84" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>185</v>
+        <v>170</v>
       </c>
       <c r="B84" t="s">
-        <v>288</v>
+        <v>269</v>
       </c>
       <c r="C84">
         <v>1</v>
       </c>
       <c r="D84" t="s">
-        <v>508</v>
+        <v>488</v>
       </c>
       <c r="E84" t="s">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="F84" t="s">
         <v>0</v>
       </c>
       <c r="G84" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="H84" t="s">
         <v>0</v>
@@ -7790,13 +7837,13 @@
         <v>1210</v>
       </c>
       <c r="J84" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="K84">
         <v>1382</v>
       </c>
       <c r="L84" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="M84" t="s">
         <v>0</v>
@@ -7805,7 +7852,7 @@
         <v>0</v>
       </c>
       <c r="O84" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="Q84">
         <f t="shared" si="6"/>
@@ -7820,27 +7867,27 @@
         <v>622</v>
       </c>
     </row>
-    <row r="85" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>155</v>
+        <v>141</v>
       </c>
       <c r="B85" t="s">
-        <v>288</v>
+        <v>269</v>
       </c>
       <c r="C85">
         <v>1</v>
       </c>
       <c r="D85" t="s">
-        <v>340</v>
+        <v>321</v>
       </c>
       <c r="E85" t="s">
-        <v>249</v>
+        <v>230</v>
       </c>
       <c r="F85" t="s">
         <v>0</v>
       </c>
       <c r="G85" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="H85" t="s">
         <v>0</v>
@@ -7849,13 +7896,13 @@
         <v>1207</v>
       </c>
       <c r="J85" t="s">
-        <v>634</v>
+        <v>614</v>
       </c>
       <c r="K85">
         <v>1263</v>
       </c>
       <c r="L85" t="s">
-        <v>635</v>
+        <v>615</v>
       </c>
       <c r="M85" t="s">
         <v>0</v>
@@ -7864,7 +7911,7 @@
         <v>0</v>
       </c>
       <c r="O85" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="Q85">
         <f t="shared" si="6"/>
@@ -7879,27 +7926,27 @@
         <v>683</v>
       </c>
     </row>
-    <row r="86" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>345</v>
+        <v>326</v>
       </c>
       <c r="B86" t="s">
-        <v>288</v>
+        <v>269</v>
       </c>
       <c r="C86">
         <v>1</v>
       </c>
       <c r="D86" t="s">
-        <v>347</v>
+        <v>328</v>
       </c>
       <c r="E86" t="s">
-        <v>344</v>
+        <v>325</v>
       </c>
       <c r="F86" t="s">
         <v>0</v>
       </c>
       <c r="G86" t="s">
-        <v>346</v>
+        <v>327</v>
       </c>
       <c r="H86" t="s">
         <v>0</v>
@@ -7908,13 +7955,13 @@
         <v>1282</v>
       </c>
       <c r="J86" t="s">
-        <v>346</v>
+        <v>327</v>
       </c>
       <c r="K86">
         <v>1333</v>
       </c>
       <c r="L86" t="s">
-        <v>252</v>
+        <v>233</v>
       </c>
       <c r="M86" t="s">
         <v>0</v>
@@ -7923,7 +7970,7 @@
         <v>0</v>
       </c>
       <c r="O86" t="s">
-        <v>252</v>
+        <v>233</v>
       </c>
       <c r="Q86">
         <f t="shared" si="6"/>
@@ -7938,27 +7985,27 @@
         <v>610.5</v>
       </c>
     </row>
-    <row r="87" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>361</v>
+        <v>342</v>
       </c>
       <c r="B87" t="s">
-        <v>288</v>
+        <v>269</v>
       </c>
       <c r="C87">
         <v>1</v>
       </c>
       <c r="D87" t="s">
-        <v>552</v>
+        <v>532</v>
       </c>
       <c r="E87" t="s">
-        <v>515</v>
+        <v>495</v>
       </c>
       <c r="F87" t="s">
         <v>0</v>
       </c>
       <c r="G87" t="s">
-        <v>550</v>
+        <v>530</v>
       </c>
       <c r="H87" t="s">
         <v>0</v>
@@ -7967,13 +8014,13 @@
         <v>1317</v>
       </c>
       <c r="J87" t="s">
-        <v>551</v>
+        <v>531</v>
       </c>
       <c r="K87">
         <v>1317</v>
       </c>
       <c r="L87" t="s">
-        <v>551</v>
+        <v>531</v>
       </c>
       <c r="M87" t="s">
         <v>0</v>
@@ -7982,7 +8029,7 @@
         <v>0</v>
       </c>
       <c r="O87" t="s">
-        <v>553</v>
+        <v>533</v>
       </c>
       <c r="Q87">
         <f t="shared" si="6"/>
@@ -7997,27 +8044,27 @@
         <v>601</v>
       </c>
     </row>
-    <row r="88" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>527</v>
+        <v>507</v>
       </c>
       <c r="B88" t="s">
-        <v>288</v>
+        <v>269</v>
       </c>
       <c r="C88">
         <v>1</v>
       </c>
       <c r="D88" t="s">
-        <v>531</v>
+        <v>511</v>
       </c>
       <c r="E88" t="s">
-        <v>152</v>
+        <v>138</v>
       </c>
       <c r="F88" t="s">
         <v>0</v>
       </c>
       <c r="G88" t="s">
-        <v>529</v>
+        <v>509</v>
       </c>
       <c r="H88" t="s">
         <v>0</v>
@@ -8026,13 +8073,13 @@
         <v>1287</v>
       </c>
       <c r="J88" t="s">
-        <v>526</v>
+        <v>506</v>
       </c>
       <c r="K88">
         <v>1387</v>
       </c>
       <c r="L88" t="s">
-        <v>526</v>
+        <v>506</v>
       </c>
       <c r="M88" t="s">
         <v>0</v>
@@ -8041,7 +8088,7 @@
         <v>0</v>
       </c>
       <c r="O88" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="Q88">
         <f t="shared" si="6"/>
@@ -8056,27 +8103,27 @@
         <v>581</v>
       </c>
     </row>
-    <row r="89" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="B89" t="s">
-        <v>288</v>
+        <v>269</v>
       </c>
       <c r="C89">
         <v>1</v>
       </c>
       <c r="D89" t="s">
-        <v>530</v>
+        <v>510</v>
       </c>
       <c r="E89" t="s">
-        <v>152</v>
+        <v>138</v>
       </c>
       <c r="F89" t="s">
         <v>0</v>
       </c>
       <c r="G89" t="s">
-        <v>529</v>
+        <v>509</v>
       </c>
       <c r="H89" t="s">
         <v>0</v>
@@ -8085,13 +8132,13 @@
         <v>1287</v>
       </c>
       <c r="J89" t="s">
-        <v>526</v>
+        <v>506</v>
       </c>
       <c r="K89">
         <v>1387</v>
       </c>
       <c r="L89" t="s">
-        <v>526</v>
+        <v>506</v>
       </c>
       <c r="M89" t="s">
         <v>0</v>
@@ -8100,7 +8147,7 @@
         <v>0</v>
       </c>
       <c r="O89" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="Q89">
         <f t="shared" si="6"/>
@@ -8115,27 +8162,27 @@
         <v>581</v>
       </c>
     </row>
-    <row r="90" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>573</v>
+        <v>553</v>
       </c>
       <c r="B90" t="s">
-        <v>288</v>
+        <v>269</v>
       </c>
       <c r="C90">
         <v>1</v>
       </c>
       <c r="D90" t="s">
-        <v>581</v>
+        <v>561</v>
       </c>
       <c r="E90" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="F90" t="s">
         <v>0</v>
       </c>
       <c r="G90" t="s">
-        <v>572</v>
+        <v>552</v>
       </c>
       <c r="H90" t="s">
         <v>0</v>
@@ -8144,13 +8191,13 @@
         <v>936</v>
       </c>
       <c r="J90" t="s">
-        <v>577</v>
+        <v>557</v>
       </c>
       <c r="K90">
         <v>1746</v>
       </c>
       <c r="L90" t="s">
-        <v>578</v>
+        <v>558</v>
       </c>
       <c r="M90" t="s">
         <v>0</v>
@@ -8159,7 +8206,7 @@
         <v>0</v>
       </c>
       <c r="O90" t="s">
-        <v>580</v>
+        <v>560</v>
       </c>
       <c r="Q90">
         <f t="shared" si="6"/>
@@ -8174,42 +8221,42 @@
         <v>577</v>
       </c>
     </row>
-    <row r="91" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>574</v>
+        <v>554</v>
       </c>
       <c r="B91" t="s">
-        <v>280</v>
+        <v>261</v>
       </c>
       <c r="C91">
         <v>0</v>
       </c>
       <c r="D91" t="s">
-        <v>582</v>
+        <v>562</v>
       </c>
       <c r="E91" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="F91" t="s">
-        <v>575</v>
+        <v>555</v>
       </c>
       <c r="G91" t="s">
-        <v>572</v>
+        <v>552</v>
       </c>
       <c r="H91" t="s">
-        <v>572</v>
+        <v>552</v>
       </c>
       <c r="I91">
         <v>936</v>
       </c>
       <c r="J91" t="s">
-        <v>577</v>
+        <v>557</v>
       </c>
       <c r="K91">
         <v>1746</v>
       </c>
       <c r="L91" t="s">
-        <v>578</v>
+        <v>558</v>
       </c>
       <c r="M91">
         <v>1746</v>
@@ -8218,7 +8265,7 @@
         <v>1746</v>
       </c>
       <c r="O91" t="s">
-        <v>578</v>
+        <v>558</v>
       </c>
       <c r="Q91">
         <f t="shared" si="6"/>
@@ -8233,27 +8280,27 @@
         <v>577</v>
       </c>
     </row>
-    <row r="92" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>536</v>
+        <v>516</v>
       </c>
       <c r="B92" t="s">
-        <v>288</v>
+        <v>269</v>
       </c>
       <c r="C92">
         <v>1</v>
       </c>
       <c r="D92" t="s">
-        <v>540</v>
+        <v>520</v>
       </c>
       <c r="E92" t="s">
-        <v>515</v>
+        <v>495</v>
       </c>
       <c r="F92" t="s">
         <v>0</v>
       </c>
       <c r="G92" t="s">
-        <v>537</v>
+        <v>517</v>
       </c>
       <c r="H92" t="s">
         <v>0</v>
@@ -8262,13 +8309,13 @@
         <v>1200</v>
       </c>
       <c r="J92" t="s">
-        <v>539</v>
+        <v>519</v>
       </c>
       <c r="K92">
         <v>1531</v>
       </c>
       <c r="L92" t="s">
-        <v>538</v>
+        <v>518</v>
       </c>
       <c r="M92" t="s">
         <v>0</v>
@@ -8277,7 +8324,7 @@
         <v>0</v>
       </c>
       <c r="O92" t="s">
-        <v>113</v>
+        <v>100</v>
       </c>
       <c r="Q92">
         <f t="shared" si="6"/>
@@ -8292,42 +8339,42 @@
         <v>552.5</v>
       </c>
     </row>
-    <row r="93" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>357</v>
+        <v>338</v>
       </c>
       <c r="B93" t="s">
-        <v>288</v>
+        <v>269</v>
       </c>
       <c r="C93">
         <v>1</v>
       </c>
       <c r="D93" t="s">
-        <v>477</v>
+        <v>457</v>
       </c>
       <c r="E93" t="s">
-        <v>212</v>
+        <v>196</v>
       </c>
       <c r="F93" t="s">
-        <v>84</v>
+        <v>72</v>
       </c>
       <c r="G93" t="s">
-        <v>83</v>
+        <v>71</v>
       </c>
       <c r="H93" t="s">
-        <v>83</v>
+        <v>71</v>
       </c>
       <c r="I93">
         <v>1409</v>
       </c>
       <c r="J93" t="s">
-        <v>83</v>
+        <v>71</v>
       </c>
       <c r="K93">
         <v>1419</v>
       </c>
       <c r="L93" t="s">
-        <v>83</v>
+        <v>71</v>
       </c>
       <c r="M93" t="s">
         <v>0</v>
@@ -8336,7 +8383,7 @@
         <v>0</v>
       </c>
       <c r="O93" t="s">
-        <v>478</v>
+        <v>458</v>
       </c>
       <c r="Q93">
         <f t="shared" si="6"/>
@@ -8351,12 +8398,12 @@
         <v>504</v>
       </c>
     </row>
-    <row r="94" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>121</v>
+        <v>108</v>
       </c>
       <c r="B94" t="s">
-        <v>288</v>
+        <v>269</v>
       </c>
       <c r="C94">
         <v>1</v>
@@ -8365,13 +8412,13 @@
         <v>0</v>
       </c>
       <c r="E94" t="s">
-        <v>116</v>
+        <v>103</v>
       </c>
       <c r="F94" t="s">
         <v>0</v>
       </c>
       <c r="G94" t="s">
-        <v>195</v>
+        <v>179</v>
       </c>
       <c r="H94" t="s">
         <v>0</v>
@@ -8380,13 +8427,13 @@
         <v>1400</v>
       </c>
       <c r="J94" t="s">
-        <v>194</v>
+        <v>178</v>
       </c>
       <c r="K94">
         <v>1450</v>
       </c>
       <c r="L94" t="s">
-        <v>194</v>
+        <v>178</v>
       </c>
       <c r="M94" t="s">
         <v>0</v>
@@ -8395,7 +8442,7 @@
         <v>0</v>
       </c>
       <c r="O94" t="s">
-        <v>195</v>
+        <v>179</v>
       </c>
       <c r="Q94">
         <f t="shared" si="6"/>
@@ -8410,27 +8457,27 @@
         <v>493</v>
       </c>
     </row>
-    <row r="95" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>348</v>
+        <v>329</v>
       </c>
       <c r="B95" t="s">
-        <v>280</v>
+        <v>261</v>
       </c>
       <c r="C95">
         <v>0</v>
       </c>
       <c r="D95" t="s">
-        <v>349</v>
+        <v>330</v>
       </c>
       <c r="E95" t="s">
-        <v>344</v>
+        <v>325</v>
       </c>
       <c r="F95" t="s">
         <v>0</v>
       </c>
       <c r="G95" t="s">
-        <v>346</v>
+        <v>327</v>
       </c>
       <c r="H95" t="s">
         <v>0</v>
@@ -8439,13 +8486,13 @@
         <v>1300</v>
       </c>
       <c r="J95" t="s">
-        <v>252</v>
+        <v>233</v>
       </c>
       <c r="K95">
         <v>1600</v>
       </c>
       <c r="L95" t="s">
-        <v>108</v>
+        <v>95</v>
       </c>
       <c r="M95">
         <v>1876</v>
@@ -8454,7 +8501,7 @@
         <v>1876</v>
       </c>
       <c r="O95" t="s">
-        <v>76</v>
+        <v>64</v>
       </c>
       <c r="Q95">
         <f t="shared" si="6"/>
@@ -8469,42 +8516,42 @@
         <v>468</v>
       </c>
     </row>
-    <row r="96" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>116</v>
+        <v>103</v>
       </c>
       <c r="B96" t="s">
-        <v>280</v>
+        <v>261</v>
       </c>
       <c r="C96">
         <v>0</v>
       </c>
       <c r="D96" t="s">
-        <v>363</v>
+        <v>344</v>
       </c>
       <c r="E96" t="s">
-        <v>267</v>
+        <v>248</v>
       </c>
       <c r="F96" t="s">
-        <v>118</v>
+        <v>105</v>
       </c>
       <c r="G96" t="s">
-        <v>200</v>
+        <v>184</v>
       </c>
       <c r="H96" t="s">
-        <v>117</v>
+        <v>104</v>
       </c>
       <c r="I96">
         <v>1400</v>
       </c>
       <c r="J96" t="s">
-        <v>199</v>
+        <v>183</v>
       </c>
       <c r="K96">
         <v>1500</v>
       </c>
       <c r="L96" t="s">
-        <v>199</v>
+        <v>183</v>
       </c>
       <c r="M96">
         <v>1600</v>
@@ -8513,7 +8560,7 @@
         <v>1700</v>
       </c>
       <c r="O96" t="s">
-        <v>199</v>
+        <v>183</v>
       </c>
       <c r="Q96">
         <f t="shared" si="6"/>
@@ -8528,42 +8575,42 @@
         <v>468</v>
       </c>
     </row>
-    <row r="97" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>159</v>
+        <v>145</v>
       </c>
       <c r="B97" t="s">
-        <v>288</v>
+        <v>269</v>
       </c>
       <c r="C97">
         <v>1</v>
       </c>
       <c r="D97" t="s">
-        <v>499</v>
+        <v>479</v>
       </c>
       <c r="E97" t="s">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="F97" t="s">
-        <v>102</v>
+        <v>89</v>
       </c>
       <c r="G97" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="H97" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="I97">
         <v>1253</v>
       </c>
       <c r="J97" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="K97">
         <v>1647</v>
       </c>
       <c r="L97" t="s">
-        <v>103</v>
+        <v>90</v>
       </c>
       <c r="M97" t="s">
         <v>0</v>
@@ -8572,7 +8619,7 @@
         <v>0</v>
       </c>
       <c r="O97" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="Q97">
         <f t="shared" si="6"/>
@@ -8587,27 +8634,27 @@
         <v>468</v>
       </c>
     </row>
-    <row r="98" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>251</v>
+        <v>232</v>
       </c>
       <c r="B98" t="s">
-        <v>288</v>
+        <v>269</v>
       </c>
       <c r="C98">
         <v>1</v>
       </c>
       <c r="D98" t="s">
-        <v>351</v>
+        <v>332</v>
       </c>
       <c r="E98" t="s">
-        <v>344</v>
+        <v>325</v>
       </c>
       <c r="F98" t="s">
         <v>0</v>
       </c>
       <c r="G98" t="s">
-        <v>252</v>
+        <v>233</v>
       </c>
       <c r="H98" t="s">
         <v>0</v>
@@ -8616,13 +8663,13 @@
         <v>1300</v>
       </c>
       <c r="J98" t="s">
-        <v>108</v>
+        <v>95</v>
       </c>
       <c r="K98">
         <v>1600</v>
       </c>
       <c r="L98" t="s">
-        <v>108</v>
+        <v>95</v>
       </c>
       <c r="M98" t="s">
         <v>0</v>
@@ -8631,7 +8678,7 @@
         <v>0</v>
       </c>
       <c r="O98" t="s">
-        <v>107</v>
+        <v>94</v>
       </c>
       <c r="Q98">
         <f t="shared" si="6"/>
@@ -8646,27 +8693,27 @@
         <v>468</v>
       </c>
     </row>
-    <row r="99" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="B99" t="s">
-        <v>288</v>
+        <v>269</v>
       </c>
       <c r="C99">
         <v>1</v>
       </c>
       <c r="D99" t="s">
-        <v>312</v>
+        <v>293</v>
       </c>
       <c r="E99" t="s">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="F99" t="s">
         <v>0</v>
       </c>
       <c r="G99" t="s">
-        <v>167</v>
+        <v>152</v>
       </c>
       <c r="H99" t="s">
         <v>0</v>
@@ -8675,13 +8722,13 @@
         <v>1200</v>
       </c>
       <c r="J99" t="s">
-        <v>167</v>
+        <v>152</v>
       </c>
       <c r="K99">
         <v>1700</v>
       </c>
       <c r="L99" t="s">
-        <v>167</v>
+        <v>152</v>
       </c>
       <c r="M99" t="s">
         <v>0</v>
@@ -8690,7 +8737,7 @@
         <v>0</v>
       </c>
       <c r="O99" t="s">
-        <v>306</v>
+        <v>287</v>
       </c>
       <c r="Q99">
         <f t="shared" ref="Q99:Q134" si="9">1918-K99</f>
@@ -8705,27 +8752,27 @@
         <v>468</v>
       </c>
     </row>
-    <row r="100" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>164</v>
+        <v>149</v>
       </c>
       <c r="B100" t="s">
-        <v>288</v>
+        <v>269</v>
       </c>
       <c r="C100">
         <v>1</v>
       </c>
       <c r="D100" t="s">
-        <v>311</v>
+        <v>292</v>
       </c>
       <c r="E100" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="F100" t="s">
         <v>0</v>
       </c>
       <c r="G100" t="s">
-        <v>165</v>
+        <v>150</v>
       </c>
       <c r="H100" t="s">
         <v>0</v>
@@ -8734,13 +8781,13 @@
         <v>1468</v>
       </c>
       <c r="J100" t="s">
-        <v>168</v>
+        <v>153</v>
       </c>
       <c r="K100">
         <v>1515</v>
       </c>
       <c r="L100" t="s">
-        <v>169</v>
+        <v>154</v>
       </c>
       <c r="M100" t="s">
         <v>0</v>
@@ -8749,7 +8796,7 @@
         <v>0</v>
       </c>
       <c r="O100" t="s">
-        <v>170</v>
+        <v>155</v>
       </c>
       <c r="Q100">
         <f t="shared" si="9"/>
@@ -8764,27 +8811,27 @@
         <v>426.5</v>
       </c>
     </row>
-    <row r="101" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>119</v>
+        <v>106</v>
       </c>
       <c r="B101" t="s">
-        <v>288</v>
+        <v>269</v>
       </c>
       <c r="C101">
         <v>1</v>
       </c>
       <c r="D101" t="s">
-        <v>365</v>
+        <v>346</v>
       </c>
       <c r="E101" t="s">
-        <v>116</v>
+        <v>103</v>
       </c>
       <c r="F101" t="s">
         <v>0</v>
       </c>
       <c r="G101" t="s">
-        <v>197</v>
+        <v>181</v>
       </c>
       <c r="H101" t="s">
         <v>0</v>
@@ -8793,13 +8840,13 @@
         <v>1400</v>
       </c>
       <c r="J101" t="s">
-        <v>196</v>
+        <v>180</v>
       </c>
       <c r="K101">
         <v>1600</v>
       </c>
       <c r="L101" t="s">
-        <v>196</v>
+        <v>180</v>
       </c>
       <c r="M101" t="s">
         <v>0</v>
@@ -8808,7 +8855,7 @@
         <v>0</v>
       </c>
       <c r="O101" t="s">
-        <v>198</v>
+        <v>182</v>
       </c>
       <c r="Q101">
         <f t="shared" si="9"/>
@@ -8823,12 +8870,12 @@
         <v>418</v>
       </c>
     </row>
-    <row r="102" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>122</v>
+        <v>109</v>
       </c>
       <c r="B102" t="s">
-        <v>288</v>
+        <v>269</v>
       </c>
       <c r="C102">
         <v>1</v>
@@ -8837,13 +8884,13 @@
         <v>0</v>
       </c>
       <c r="E102" t="s">
-        <v>116</v>
+        <v>103</v>
       </c>
       <c r="F102" t="s">
         <v>0</v>
       </c>
       <c r="G102" t="s">
-        <v>220</v>
+        <v>202</v>
       </c>
       <c r="H102" t="s">
         <v>0</v>
@@ -8852,13 +8899,13 @@
         <v>1400</v>
       </c>
       <c r="J102" t="s">
-        <v>220</v>
+        <v>202</v>
       </c>
       <c r="K102">
         <v>1600</v>
       </c>
       <c r="L102" t="s">
-        <v>364</v>
+        <v>345</v>
       </c>
       <c r="M102" t="s">
         <v>0</v>
@@ -8867,7 +8914,7 @@
         <v>0</v>
       </c>
       <c r="O102" t="s">
-        <v>123</v>
+        <v>110</v>
       </c>
       <c r="Q102">
         <f t="shared" si="9"/>
@@ -8882,27 +8929,27 @@
         <v>418</v>
       </c>
     </row>
-    <row r="103" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="B103" t="s">
-        <v>280</v>
+        <v>261</v>
       </c>
       <c r="C103">
         <v>0</v>
       </c>
       <c r="D103" t="s">
-        <v>373</v>
+        <v>354</v>
       </c>
       <c r="E103" t="s">
-        <v>116</v>
+        <v>103</v>
       </c>
       <c r="F103" t="s">
         <v>0</v>
       </c>
       <c r="G103" t="s">
-        <v>117</v>
+        <v>104</v>
       </c>
       <c r="H103" t="s">
         <v>0</v>
@@ -8911,13 +8958,13 @@
         <v>1520</v>
       </c>
       <c r="J103" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="K103">
         <v>1525</v>
       </c>
       <c r="L103" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="M103">
         <v>1699</v>
@@ -8926,7 +8973,7 @@
         <v>1708</v>
       </c>
       <c r="O103" t="s">
-        <v>209</v>
+        <v>193</v>
       </c>
       <c r="Q103">
         <f t="shared" si="9"/>
@@ -8941,27 +8988,27 @@
         <v>395.5</v>
       </c>
     </row>
-    <row r="104" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>303</v>
+        <v>284</v>
       </c>
       <c r="B104" t="s">
-        <v>288</v>
+        <v>269</v>
       </c>
       <c r="C104">
         <v>1</v>
       </c>
       <c r="D104" t="s">
-        <v>304</v>
+        <v>285</v>
       </c>
       <c r="E104" t="s">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="F104" t="s">
         <v>0</v>
       </c>
       <c r="G104" t="s">
-        <v>306</v>
+        <v>287</v>
       </c>
       <c r="H104" t="s">
         <v>0</v>
@@ -8970,13 +9017,13 @@
         <v>1400</v>
       </c>
       <c r="J104" t="s">
-        <v>305</v>
+        <v>286</v>
       </c>
       <c r="K104">
         <v>1700</v>
       </c>
       <c r="L104" t="s">
-        <v>305</v>
+        <v>286</v>
       </c>
       <c r="M104" t="s">
         <v>0</v>
@@ -8985,7 +9032,7 @@
         <v>0</v>
       </c>
       <c r="O104" t="s">
-        <v>306</v>
+        <v>287</v>
       </c>
       <c r="Q104">
         <f t="shared" si="9"/>
@@ -9000,27 +9047,27 @@
         <v>368</v>
       </c>
     </row>
-    <row r="105" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>173</v>
+        <v>158</v>
       </c>
       <c r="B105" t="s">
-        <v>288</v>
+        <v>269</v>
       </c>
       <c r="C105">
         <v>1</v>
       </c>
       <c r="D105" t="s">
-        <v>174</v>
+        <v>159</v>
       </c>
       <c r="E105" t="s">
-        <v>544</v>
+        <v>524</v>
       </c>
       <c r="F105" t="s">
         <v>0</v>
       </c>
       <c r="G105" t="s">
-        <v>543</v>
+        <v>523</v>
       </c>
       <c r="H105" t="s">
         <v>0</v>
@@ -9029,13 +9076,13 @@
         <v>1531</v>
       </c>
       <c r="J105" t="s">
-        <v>114</v>
+        <v>101</v>
       </c>
       <c r="K105">
         <v>1585</v>
       </c>
       <c r="L105" t="s">
-        <v>113</v>
+        <v>100</v>
       </c>
       <c r="M105" t="s">
         <v>0</v>
@@ -9044,7 +9091,7 @@
         <v>0</v>
       </c>
       <c r="O105" t="s">
-        <v>113</v>
+        <v>100</v>
       </c>
       <c r="Q105">
         <f t="shared" si="9"/>
@@ -9059,27 +9106,27 @@
         <v>360</v>
       </c>
     </row>
-    <row r="106" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>175</v>
+        <v>160</v>
       </c>
       <c r="B106" t="s">
-        <v>288</v>
+        <v>269</v>
       </c>
       <c r="C106">
         <v>1</v>
       </c>
-      <c r="D106" s="6" t="s">
-        <v>352</v>
+      <c r="D106" s="4" t="s">
+        <v>333</v>
       </c>
       <c r="E106" t="s">
-        <v>344</v>
+        <v>325</v>
       </c>
       <c r="F106" t="s">
         <v>0</v>
       </c>
       <c r="G106" t="s">
-        <v>76</v>
+        <v>64</v>
       </c>
       <c r="H106" t="s">
         <v>0</v>
@@ -9088,13 +9135,13 @@
         <v>1595</v>
       </c>
       <c r="J106" t="s">
-        <v>76</v>
+        <v>64</v>
       </c>
       <c r="K106">
         <v>1595</v>
       </c>
       <c r="L106" t="s">
-        <v>76</v>
+        <v>64</v>
       </c>
       <c r="M106" t="s">
         <v>0</v>
@@ -9103,7 +9150,7 @@
         <v>0</v>
       </c>
       <c r="O106" t="s">
-        <v>107</v>
+        <v>94</v>
       </c>
       <c r="Q106">
         <f t="shared" si="9"/>
@@ -9118,27 +9165,27 @@
         <v>323</v>
       </c>
     </row>
-    <row r="107" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>188</v>
+        <v>173</v>
       </c>
       <c r="B107" t="s">
-        <v>288</v>
+        <v>269</v>
       </c>
       <c r="C107">
         <v>1</v>
       </c>
       <c r="D107" t="s">
-        <v>190</v>
+        <v>175</v>
       </c>
       <c r="E107" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="F107" t="s">
         <v>0</v>
       </c>
       <c r="G107" t="s">
-        <v>189</v>
+        <v>174</v>
       </c>
       <c r="H107" t="s">
         <v>0</v>
@@ -9147,13 +9194,13 @@
         <v>1539</v>
       </c>
       <c r="J107" t="s">
-        <v>189</v>
+        <v>174</v>
       </c>
       <c r="K107">
         <v>1708</v>
       </c>
       <c r="L107" t="s">
-        <v>368</v>
+        <v>349</v>
       </c>
       <c r="M107" t="s">
         <v>0</v>
@@ -9162,7 +9209,7 @@
         <v>0</v>
       </c>
       <c r="O107" t="s">
-        <v>189</v>
+        <v>174</v>
       </c>
       <c r="Q107">
         <f t="shared" si="9"/>
@@ -9177,12 +9224,12 @@
         <v>294.5</v>
       </c>
     </row>
-    <row r="108" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>120</v>
+        <v>107</v>
       </c>
       <c r="B108" t="s">
-        <v>288</v>
+        <v>269</v>
       </c>
       <c r="C108">
         <v>1</v>
@@ -9191,13 +9238,13 @@
         <v>0</v>
       </c>
       <c r="E108" t="s">
-        <v>116</v>
+        <v>103</v>
       </c>
       <c r="F108" t="s">
         <v>0</v>
       </c>
       <c r="G108" t="s">
-        <v>117</v>
+        <v>104</v>
       </c>
       <c r="H108" t="s">
         <v>0</v>
@@ -9206,13 +9253,13 @@
         <v>1564</v>
       </c>
       <c r="J108" t="s">
-        <v>202</v>
+        <v>186</v>
       </c>
       <c r="K108">
         <v>1700</v>
       </c>
       <c r="L108" t="s">
-        <v>367</v>
+        <v>348</v>
       </c>
       <c r="M108" t="s">
         <v>0</v>
@@ -9221,7 +9268,7 @@
         <v>0</v>
       </c>
       <c r="O108" t="s">
-        <v>117</v>
+        <v>104</v>
       </c>
       <c r="Q108">
         <f t="shared" si="9"/>
@@ -9236,27 +9283,27 @@
         <v>286</v>
       </c>
     </row>
-    <row r="109" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>247</v>
+        <v>228</v>
       </c>
       <c r="B109" t="s">
-        <v>288</v>
+        <v>269</v>
       </c>
       <c r="C109">
         <v>1</v>
       </c>
       <c r="D109" t="s">
-        <v>310</v>
+        <v>291</v>
       </c>
       <c r="E109" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="F109" t="s">
         <v>0</v>
       </c>
       <c r="G109" t="s">
-        <v>248</v>
+        <v>229</v>
       </c>
       <c r="H109" t="s">
         <v>0</v>
@@ -9265,13 +9312,13 @@
         <v>1600</v>
       </c>
       <c r="J109" t="s">
-        <v>309</v>
+        <v>290</v>
       </c>
       <c r="K109">
         <v>1700</v>
       </c>
       <c r="L109" t="s">
-        <v>309</v>
+        <v>290</v>
       </c>
       <c r="M109" t="s">
         <v>0</v>
@@ -9280,7 +9327,7 @@
         <v>0</v>
       </c>
       <c r="O109" t="s">
-        <v>165</v>
+        <v>150</v>
       </c>
       <c r="Q109">
         <f t="shared" si="9"/>
@@ -9295,27 +9342,27 @@
         <v>268</v>
       </c>
     </row>
-    <row r="110" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
-        <v>308</v>
+        <v>289</v>
       </c>
       <c r="B110" t="s">
-        <v>288</v>
+        <v>269</v>
       </c>
       <c r="C110">
         <v>1</v>
       </c>
       <c r="D110" t="s">
-        <v>307</v>
+        <v>288</v>
       </c>
       <c r="E110" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="F110" t="s">
         <v>0</v>
       </c>
       <c r="G110" t="s">
-        <v>309</v>
+        <v>290</v>
       </c>
       <c r="H110" t="s">
         <v>0</v>
@@ -9324,13 +9371,13 @@
         <v>1600</v>
       </c>
       <c r="J110" t="s">
-        <v>309</v>
+        <v>290</v>
       </c>
       <c r="K110">
         <v>1700</v>
       </c>
       <c r="L110" t="s">
-        <v>309</v>
+        <v>290</v>
       </c>
       <c r="M110" t="s">
         <v>0</v>
@@ -9339,7 +9386,7 @@
         <v>0</v>
       </c>
       <c r="O110" t="s">
-        <v>309</v>
+        <v>290</v>
       </c>
       <c r="Q110">
         <f t="shared" si="9"/>
@@ -9354,27 +9401,27 @@
         <v>268</v>
       </c>
     </row>
-    <row r="111" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
-        <v>187</v>
+        <v>172</v>
       </c>
       <c r="B111" t="s">
-        <v>280</v>
+        <v>261</v>
       </c>
       <c r="C111">
         <v>0</v>
       </c>
       <c r="D111" t="s">
-        <v>372</v>
+        <v>353</v>
       </c>
       <c r="E111" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="F111" t="s">
         <v>0</v>
       </c>
       <c r="G111" t="s">
-        <v>207</v>
+        <v>191</v>
       </c>
       <c r="H111" t="s">
         <v>0</v>
@@ -9383,13 +9430,13 @@
         <v>1699</v>
       </c>
       <c r="J111" t="s">
-        <v>378</v>
+        <v>359</v>
       </c>
       <c r="K111">
         <v>1708</v>
       </c>
       <c r="L111" t="s">
-        <v>371</v>
+        <v>352</v>
       </c>
       <c r="M111">
         <v>1873</v>
@@ -9398,7 +9445,7 @@
         <v>1879</v>
       </c>
       <c r="O111" t="s">
-        <v>207</v>
+        <v>191</v>
       </c>
       <c r="Q111">
         <f t="shared" si="9"/>
@@ -9413,27 +9460,27 @@
         <v>214.5</v>
       </c>
     </row>
-    <row r="112" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
-        <v>192</v>
+        <v>177</v>
       </c>
       <c r="B112" t="s">
-        <v>280</v>
+        <v>261</v>
       </c>
       <c r="C112">
         <v>0</v>
       </c>
       <c r="D112" t="s">
-        <v>380</v>
+        <v>361</v>
       </c>
       <c r="E112" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="F112" t="s">
         <v>0</v>
       </c>
       <c r="G112" t="s">
-        <v>207</v>
+        <v>191</v>
       </c>
       <c r="H112" t="s">
         <v>0</v>
@@ -9442,13 +9489,13 @@
         <v>1699</v>
       </c>
       <c r="J112" t="s">
-        <v>209</v>
+        <v>193</v>
       </c>
       <c r="K112">
         <v>1708</v>
       </c>
       <c r="L112" t="s">
-        <v>209</v>
+        <v>193</v>
       </c>
       <c r="M112">
         <v>1851</v>
@@ -9457,7 +9504,7 @@
         <v>1851</v>
       </c>
       <c r="O112" t="s">
-        <v>205</v>
+        <v>189</v>
       </c>
       <c r="Q112">
         <f t="shared" si="9"/>
@@ -9472,42 +9519,42 @@
         <v>214.5</v>
       </c>
     </row>
-    <row r="113" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>157</v>
+        <v>143</v>
       </c>
       <c r="B113" t="s">
-        <v>288</v>
+        <v>269</v>
       </c>
       <c r="C113">
         <v>1</v>
       </c>
       <c r="D113" t="s">
-        <v>583</v>
+        <v>563</v>
       </c>
       <c r="E113" t="s">
-        <v>574</v>
+        <v>554</v>
       </c>
       <c r="F113" t="s">
-        <v>573</v>
+        <v>553</v>
       </c>
       <c r="G113" t="s">
-        <v>578</v>
+        <v>558</v>
       </c>
       <c r="H113" t="s">
-        <v>578</v>
+        <v>558</v>
       </c>
       <c r="I113">
         <v>1746</v>
       </c>
       <c r="J113" t="s">
-        <v>578</v>
+        <v>558</v>
       </c>
       <c r="K113">
         <v>1746</v>
       </c>
       <c r="L113" t="s">
-        <v>578</v>
+        <v>558</v>
       </c>
       <c r="M113" t="s">
         <v>0</v>
@@ -9516,7 +9563,7 @@
         <v>0</v>
       </c>
       <c r="O113" t="s">
-        <v>578</v>
+        <v>558</v>
       </c>
       <c r="Q113">
         <f t="shared" si="9"/>
@@ -9531,27 +9578,27 @@
         <v>172</v>
       </c>
     </row>
-    <row r="114" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
-        <v>158</v>
+        <v>144</v>
       </c>
       <c r="B114" t="s">
-        <v>288</v>
+        <v>269</v>
       </c>
       <c r="C114">
         <v>1</v>
       </c>
       <c r="D114" t="s">
-        <v>584</v>
+        <v>564</v>
       </c>
       <c r="E114" t="s">
-        <v>574</v>
+        <v>554</v>
       </c>
       <c r="F114" t="s">
         <v>0</v>
       </c>
       <c r="G114" t="s">
-        <v>578</v>
+        <v>558</v>
       </c>
       <c r="H114" t="s">
         <v>0</v>
@@ -9560,13 +9607,13 @@
         <v>1746</v>
       </c>
       <c r="J114" t="s">
-        <v>578</v>
+        <v>558</v>
       </c>
       <c r="K114">
         <v>1746</v>
       </c>
       <c r="L114" t="s">
-        <v>578</v>
+        <v>558</v>
       </c>
       <c r="M114" t="s">
         <v>0</v>
@@ -9575,7 +9622,7 @@
         <v>0</v>
       </c>
       <c r="O114" t="s">
-        <v>578</v>
+        <v>558</v>
       </c>
       <c r="Q114">
         <f t="shared" si="9"/>
@@ -9590,27 +9637,27 @@
         <v>172</v>
       </c>
     </row>
-    <row r="115" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
-        <v>99</v>
+        <v>87</v>
       </c>
       <c r="B115" t="s">
-        <v>288</v>
+        <v>269</v>
       </c>
       <c r="C115">
         <v>1</v>
       </c>
       <c r="D115" t="s">
-        <v>589</v>
+        <v>569</v>
       </c>
       <c r="E115" t="s">
-        <v>149</v>
+        <v>135</v>
       </c>
       <c r="F115" t="s">
         <v>0</v>
       </c>
       <c r="G115" t="s">
-        <v>295</v>
+        <v>276</v>
       </c>
       <c r="H115" t="s">
         <v>0</v>
@@ -9619,13 +9666,13 @@
         <v>1753</v>
       </c>
       <c r="J115" t="s">
-        <v>222</v>
+        <v>204</v>
       </c>
       <c r="K115">
         <v>1765</v>
       </c>
       <c r="L115" t="s">
-        <v>222</v>
+        <v>204</v>
       </c>
       <c r="M115" t="s">
         <v>0</v>
@@ -9634,7 +9681,7 @@
         <v>0</v>
       </c>
       <c r="O115" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="Q115">
         <f t="shared" si="9"/>
@@ -9649,27 +9696,27 @@
         <v>159</v>
       </c>
     </row>
-    <row r="116" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
-        <v>162</v>
+        <v>147</v>
       </c>
       <c r="B116" t="s">
-        <v>288</v>
+        <v>269</v>
       </c>
       <c r="C116">
         <v>1</v>
       </c>
       <c r="D116" t="s">
-        <v>313</v>
+        <v>294</v>
       </c>
       <c r="E116" t="s">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="F116" t="s">
         <v>0</v>
       </c>
       <c r="G116" t="s">
-        <v>163</v>
+        <v>148</v>
       </c>
       <c r="H116" t="s">
         <v>0</v>
@@ -9678,13 +9725,13 @@
         <v>1760</v>
       </c>
       <c r="J116" t="s">
-        <v>163</v>
+        <v>148</v>
       </c>
       <c r="K116">
         <v>1760</v>
       </c>
       <c r="L116" t="s">
-        <v>163</v>
+        <v>148</v>
       </c>
       <c r="M116" t="s">
         <v>0</v>
@@ -9693,7 +9740,7 @@
         <v>0</v>
       </c>
       <c r="O116" t="s">
-        <v>306</v>
+        <v>287</v>
       </c>
       <c r="Q116">
         <f t="shared" si="9"/>
@@ -9708,27 +9755,27 @@
         <v>158</v>
       </c>
     </row>
-    <row r="117" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
-        <v>369</v>
+        <v>350</v>
       </c>
       <c r="B117" t="s">
-        <v>288</v>
+        <v>269</v>
       </c>
       <c r="C117">
         <v>1</v>
       </c>
       <c r="D117" t="s">
-        <v>375</v>
+        <v>356</v>
       </c>
       <c r="E117" t="s">
+        <v>172</v>
+      </c>
+      <c r="F117" t="s">
+        <v>0</v>
+      </c>
+      <c r="G117" t="s">
         <v>187</v>
-      </c>
-      <c r="F117" t="s">
-        <v>0</v>
-      </c>
-      <c r="G117" t="s">
-        <v>203</v>
       </c>
       <c r="H117" t="s">
         <v>0</v>
@@ -9737,13 +9784,13 @@
         <v>1708</v>
       </c>
       <c r="J117" t="s">
-        <v>203</v>
+        <v>187</v>
       </c>
       <c r="K117">
         <v>1857</v>
       </c>
       <c r="L117" t="s">
-        <v>376</v>
+        <v>357</v>
       </c>
       <c r="M117" t="s">
         <v>0</v>
@@ -9752,7 +9799,7 @@
         <v>0</v>
       </c>
       <c r="O117" t="s">
-        <v>204</v>
+        <v>188</v>
       </c>
       <c r="Q117">
         <f t="shared" si="9"/>
@@ -9767,27 +9814,27 @@
         <v>135.5</v>
       </c>
     </row>
-    <row r="118" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
-        <v>176</v>
+        <v>161</v>
       </c>
       <c r="B118" t="s">
-        <v>288</v>
+        <v>269</v>
       </c>
       <c r="C118">
         <v>1</v>
       </c>
       <c r="D118" t="s">
-        <v>591</v>
+        <v>571</v>
       </c>
       <c r="E118" t="s">
-        <v>149</v>
+        <v>135</v>
       </c>
       <c r="F118" t="s">
         <v>0</v>
       </c>
       <c r="G118" t="s">
-        <v>295</v>
+        <v>276</v>
       </c>
       <c r="H118" t="s">
         <v>0</v>
@@ -9796,13 +9843,13 @@
         <v>1782</v>
       </c>
       <c r="J118" t="s">
-        <v>590</v>
+        <v>570</v>
       </c>
       <c r="K118">
         <v>1809</v>
       </c>
       <c r="L118" t="s">
-        <v>590</v>
+        <v>570</v>
       </c>
       <c r="M118" t="s">
         <v>0</v>
@@ -9811,7 +9858,7 @@
         <v>0</v>
       </c>
       <c r="O118" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="Q118">
         <f t="shared" si="9"/>
@@ -9826,27 +9873,27 @@
         <v>122.5</v>
       </c>
     </row>
-    <row r="119" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
-        <v>177</v>
+        <v>162</v>
       </c>
       <c r="B119" t="s">
-        <v>288</v>
+        <v>269</v>
       </c>
       <c r="C119">
         <v>1</v>
       </c>
       <c r="D119" t="s">
-        <v>593</v>
+        <v>573</v>
       </c>
       <c r="E119" t="s">
-        <v>149</v>
+        <v>135</v>
       </c>
       <c r="F119" t="s">
         <v>0</v>
       </c>
       <c r="G119" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="H119" t="s">
         <v>0</v>
@@ -9855,13 +9902,13 @@
         <v>1781</v>
       </c>
       <c r="J119" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="K119">
         <v>1819</v>
       </c>
       <c r="L119" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="M119" t="s">
         <v>0</v>
@@ -9870,7 +9917,7 @@
         <v>0</v>
       </c>
       <c r="O119" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="Q119">
         <f t="shared" si="9"/>
@@ -9885,27 +9932,27 @@
         <v>118</v>
       </c>
     </row>
-    <row r="120" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
-        <v>382</v>
+        <v>363</v>
       </c>
       <c r="B120" t="s">
-        <v>280</v>
+        <v>261</v>
       </c>
       <c r="C120">
         <v>0</v>
       </c>
-      <c r="D120" s="7" t="s">
-        <v>592</v>
+      <c r="D120" s="5" t="s">
+        <v>572</v>
       </c>
       <c r="E120" t="s">
-        <v>360</v>
+        <v>341</v>
       </c>
       <c r="F120" t="s">
         <v>0</v>
       </c>
       <c r="G120" t="s">
-        <v>113</v>
+        <v>100</v>
       </c>
       <c r="H120" t="s">
         <v>0</v>
@@ -9914,13 +9961,13 @@
         <v>1800</v>
       </c>
       <c r="J120" t="s">
-        <v>136</v>
+        <v>123</v>
       </c>
       <c r="K120">
         <v>1801</v>
       </c>
       <c r="L120" t="s">
-        <v>136</v>
+        <v>123</v>
       </c>
       <c r="M120">
         <v>1906</v>
@@ -9929,7 +9976,7 @@
         <v>1907</v>
       </c>
       <c r="O120" t="s">
-        <v>137</v>
+        <v>124</v>
       </c>
       <c r="Q120">
         <f t="shared" si="9"/>
@@ -9944,27 +9991,27 @@
         <v>117.5</v>
       </c>
     </row>
-    <row r="121" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
-        <v>293</v>
+        <v>274</v>
       </c>
       <c r="B121" t="s">
-        <v>288</v>
+        <v>269</v>
       </c>
       <c r="C121">
         <v>1</v>
       </c>
       <c r="D121" t="s">
-        <v>594</v>
+        <v>574</v>
       </c>
       <c r="E121" t="s">
-        <v>149</v>
+        <v>135</v>
       </c>
       <c r="F121" t="s">
         <v>0</v>
       </c>
       <c r="G121" t="s">
-        <v>295</v>
+        <v>276</v>
       </c>
       <c r="H121" t="s">
         <v>0</v>
@@ -9973,13 +10020,13 @@
         <v>1753</v>
       </c>
       <c r="J121" t="s">
-        <v>298</v>
+        <v>279</v>
       </c>
       <c r="K121">
         <v>1851</v>
       </c>
       <c r="L121" t="s">
-        <v>296</v>
+        <v>277</v>
       </c>
       <c r="M121" t="s">
         <v>0</v>
@@ -9988,7 +10035,7 @@
         <v>0</v>
       </c>
       <c r="O121" t="s">
-        <v>295</v>
+        <v>276</v>
       </c>
       <c r="Q121">
         <f t="shared" si="9"/>
@@ -10003,42 +10050,42 @@
         <v>116</v>
       </c>
     </row>
-    <row r="122" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
-        <v>398</v>
+        <v>378</v>
       </c>
       <c r="B122" t="s">
-        <v>288</v>
+        <v>269</v>
       </c>
       <c r="C122">
         <v>1</v>
       </c>
       <c r="D122" t="s">
-        <v>402</v>
+        <v>382</v>
       </c>
       <c r="E122" t="s">
-        <v>147</v>
+        <v>133</v>
       </c>
       <c r="F122" t="s">
-        <v>400</v>
+        <v>380</v>
       </c>
       <c r="G122" t="s">
-        <v>401</v>
+        <v>381</v>
       </c>
       <c r="H122" t="s">
-        <v>399</v>
+        <v>379</v>
       </c>
       <c r="I122">
         <v>1815</v>
       </c>
       <c r="J122" t="s">
-        <v>403</v>
+        <v>383</v>
       </c>
       <c r="K122">
         <v>1828</v>
       </c>
       <c r="L122" t="s">
-        <v>403</v>
+        <v>383</v>
       </c>
       <c r="M122" t="s">
         <v>0</v>
@@ -10047,7 +10094,7 @@
         <v>0</v>
       </c>
       <c r="O122" t="s">
-        <v>403</v>
+        <v>383</v>
       </c>
       <c r="Q122">
         <f t="shared" si="9"/>
@@ -10062,27 +10109,27 @@
         <v>96.5</v>
       </c>
     </row>
-    <row r="123" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
-        <v>178</v>
+        <v>163</v>
       </c>
       <c r="B123" t="s">
-        <v>288</v>
+        <v>269</v>
       </c>
       <c r="C123">
         <v>1</v>
       </c>
       <c r="D123" t="s">
-        <v>300</v>
+        <v>281</v>
       </c>
       <c r="E123" t="s">
-        <v>176</v>
+        <v>161</v>
       </c>
       <c r="F123" t="s">
         <v>0</v>
       </c>
       <c r="G123" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="H123" t="s">
         <v>0</v>
@@ -10091,13 +10138,13 @@
         <v>1829</v>
       </c>
       <c r="J123" t="s">
-        <v>301</v>
+        <v>282</v>
       </c>
       <c r="K123">
         <v>1829</v>
       </c>
       <c r="L123" t="s">
-        <v>301</v>
+        <v>282</v>
       </c>
       <c r="M123" t="s">
         <v>0</v>
@@ -10106,7 +10153,7 @@
         <v>0</v>
       </c>
       <c r="O123" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="Q123">
         <f t="shared" si="9"/>
@@ -10121,12 +10168,12 @@
         <v>89</v>
       </c>
     </row>
-    <row r="124" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="B124" t="s">
-        <v>288</v>
+        <v>269</v>
       </c>
       <c r="C124">
         <v>1</v>
@@ -10135,13 +10182,13 @@
         <v>0</v>
       </c>
       <c r="E124" t="s">
-        <v>191</v>
+        <v>176</v>
       </c>
       <c r="F124" t="s">
         <v>0</v>
       </c>
       <c r="G124" t="s">
-        <v>377</v>
+        <v>358</v>
       </c>
       <c r="H124" t="s">
         <v>0</v>
@@ -10150,13 +10197,13 @@
         <v>1851</v>
       </c>
       <c r="J124" t="s">
-        <v>205</v>
+        <v>189</v>
       </c>
       <c r="K124">
         <v>1851</v>
       </c>
       <c r="L124" t="s">
-        <v>205</v>
+        <v>189</v>
       </c>
       <c r="M124" t="s">
         <v>0</v>
@@ -10165,7 +10212,7 @@
         <v>0</v>
       </c>
       <c r="O124" t="s">
-        <v>206</v>
+        <v>190</v>
       </c>
       <c r="Q124">
         <f t="shared" si="9"/>
@@ -10180,27 +10227,27 @@
         <v>67</v>
       </c>
     </row>
-    <row r="125" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
-        <v>379</v>
+        <v>360</v>
       </c>
       <c r="B125" t="s">
-        <v>288</v>
+        <v>269</v>
       </c>
       <c r="C125">
         <v>1</v>
       </c>
       <c r="D125" t="s">
-        <v>639</v>
+        <v>619</v>
       </c>
       <c r="E125" t="s">
+        <v>176</v>
+      </c>
+      <c r="F125" t="s">
+        <v>0</v>
+      </c>
+      <c r="G125" t="s">
         <v>191</v>
-      </c>
-      <c r="F125" t="s">
-        <v>0</v>
-      </c>
-      <c r="G125" t="s">
-        <v>207</v>
       </c>
       <c r="H125" t="s">
         <v>0</v>
@@ -10209,13 +10256,13 @@
         <v>1851</v>
       </c>
       <c r="J125" t="s">
-        <v>205</v>
+        <v>189</v>
       </c>
       <c r="K125">
         <v>1851</v>
       </c>
       <c r="L125" t="s">
-        <v>205</v>
+        <v>189</v>
       </c>
       <c r="M125" t="s">
         <v>0</v>
@@ -10224,7 +10271,7 @@
         <v>0</v>
       </c>
       <c r="O125" t="s">
-        <v>208</v>
+        <v>192</v>
       </c>
       <c r="Q125">
         <f t="shared" si="9"/>
@@ -10239,27 +10286,27 @@
         <v>67</v>
       </c>
     </row>
-    <row r="126" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
-        <v>385</v>
+        <v>366</v>
       </c>
       <c r="B126" t="s">
-        <v>288</v>
+        <v>269</v>
       </c>
       <c r="C126">
         <v>1</v>
       </c>
       <c r="D126" t="s">
-        <v>386</v>
+        <v>367</v>
       </c>
       <c r="E126" t="s">
-        <v>211</v>
+        <v>195</v>
       </c>
       <c r="F126" t="s">
         <v>0</v>
       </c>
       <c r="G126" t="s">
-        <v>210</v>
+        <v>194</v>
       </c>
       <c r="H126" t="s">
         <v>0</v>
@@ -10268,13 +10315,13 @@
         <v>1861</v>
       </c>
       <c r="J126" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="K126">
         <v>1861</v>
       </c>
       <c r="L126" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="M126" t="s">
         <v>0</v>
@@ -10283,7 +10330,7 @@
         <v>0</v>
       </c>
       <c r="O126" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="Q126">
         <f t="shared" si="9"/>
@@ -10298,27 +10345,27 @@
         <v>57</v>
       </c>
     </row>
-    <row r="127" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
-        <v>179</v>
+        <v>164</v>
       </c>
       <c r="B127" t="s">
-        <v>288</v>
+        <v>269</v>
       </c>
       <c r="C127">
         <v>1</v>
       </c>
       <c r="D127" t="s">
-        <v>299</v>
+        <v>280</v>
       </c>
       <c r="E127" t="s">
-        <v>99</v>
+        <v>87</v>
       </c>
       <c r="F127" t="s">
         <v>0</v>
       </c>
       <c r="G127" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="H127" t="s">
         <v>0</v>
@@ -10327,13 +10374,13 @@
         <v>1864</v>
       </c>
       <c r="J127" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="K127">
         <v>1864</v>
       </c>
       <c r="L127" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="M127" t="s">
         <v>0</v>
@@ -10342,7 +10389,7 @@
         <v>0</v>
       </c>
       <c r="O127" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="Q127">
         <f t="shared" si="9"/>
@@ -10357,27 +10404,27 @@
         <v>54</v>
       </c>
     </row>
-    <row r="128" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
-        <v>180</v>
+        <v>165</v>
       </c>
       <c r="B128" t="s">
-        <v>288</v>
+        <v>269</v>
       </c>
       <c r="C128">
         <v>1</v>
       </c>
       <c r="D128" t="s">
-        <v>387</v>
+        <v>368</v>
       </c>
       <c r="E128" t="s">
-        <v>147</v>
+        <v>133</v>
       </c>
       <c r="F128" t="s">
         <v>0</v>
       </c>
       <c r="G128" t="s">
-        <v>132</v>
+        <v>119</v>
       </c>
       <c r="H128" t="s">
         <v>0</v>
@@ -10386,13 +10433,13 @@
         <v>1863</v>
       </c>
       <c r="J128" t="s">
-        <v>135</v>
+        <v>122</v>
       </c>
       <c r="K128">
         <v>1875</v>
       </c>
       <c r="L128" t="s">
-        <v>133</v>
+        <v>120</v>
       </c>
       <c r="M128" t="s">
         <v>0</v>
@@ -10401,7 +10448,7 @@
         <v>0</v>
       </c>
       <c r="O128" t="s">
-        <v>134</v>
+        <v>121</v>
       </c>
       <c r="Q128">
         <f t="shared" si="9"/>
@@ -10416,27 +10463,27 @@
         <v>49</v>
       </c>
     </row>
-    <row r="129" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
-        <v>341</v>
+        <v>322</v>
       </c>
       <c r="B129" t="s">
-        <v>288</v>
+        <v>269</v>
       </c>
       <c r="C129">
         <v>1</v>
       </c>
       <c r="D129" t="s">
-        <v>350</v>
+        <v>331</v>
       </c>
       <c r="E129" t="s">
-        <v>348</v>
+        <v>329</v>
       </c>
       <c r="F129" t="s">
         <v>0</v>
       </c>
       <c r="G129" t="s">
-        <v>76</v>
+        <v>64</v>
       </c>
       <c r="H129" t="s">
         <v>0</v>
@@ -10445,13 +10492,13 @@
         <v>1876</v>
       </c>
       <c r="J129" t="s">
-        <v>76</v>
+        <v>64</v>
       </c>
       <c r="K129">
         <v>1876</v>
       </c>
       <c r="L129" t="s">
-        <v>76</v>
+        <v>64</v>
       </c>
       <c r="M129" t="s">
         <v>0</v>
@@ -10460,7 +10507,7 @@
         <v>0</v>
       </c>
       <c r="O129" t="s">
-        <v>107</v>
+        <v>94</v>
       </c>
       <c r="Q129">
         <f t="shared" si="9"/>
@@ -10475,27 +10522,27 @@
         <v>42</v>
       </c>
     </row>
-    <row r="130" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
-        <v>366</v>
+        <v>347</v>
       </c>
       <c r="B130" t="s">
-        <v>288</v>
+        <v>269</v>
       </c>
       <c r="C130">
         <v>1</v>
       </c>
       <c r="D130" t="s">
-        <v>374</v>
+        <v>355</v>
       </c>
       <c r="E130" t="s">
-        <v>187</v>
+        <v>172</v>
       </c>
       <c r="F130" t="s">
         <v>0</v>
       </c>
       <c r="G130" t="s">
-        <v>207</v>
+        <v>191</v>
       </c>
       <c r="H130" t="s">
         <v>0</v>
@@ -10504,13 +10551,13 @@
         <v>1873</v>
       </c>
       <c r="J130" t="s">
-        <v>207</v>
+        <v>191</v>
       </c>
       <c r="K130">
         <v>1879</v>
       </c>
       <c r="L130" t="s">
-        <v>207</v>
+        <v>191</v>
       </c>
       <c r="M130" t="s">
         <v>0</v>
@@ -10519,7 +10566,7 @@
         <v>0</v>
       </c>
       <c r="O130" t="s">
-        <v>370</v>
+        <v>351</v>
       </c>
       <c r="Q130">
         <f t="shared" si="9"/>
@@ -10534,42 +10581,42 @@
         <v>42</v>
       </c>
     </row>
-    <row r="131" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
-        <v>181</v>
+        <v>166</v>
       </c>
       <c r="B131" t="s">
-        <v>288</v>
+        <v>269</v>
       </c>
       <c r="C131">
         <v>1</v>
       </c>
       <c r="D131" t="s">
-        <v>182</v>
+        <v>167</v>
       </c>
       <c r="E131" t="s">
-        <v>147</v>
+        <v>133</v>
       </c>
       <c r="F131" t="s">
-        <v>139</v>
+        <v>126</v>
       </c>
       <c r="G131" t="s">
-        <v>141</v>
+        <v>128</v>
       </c>
       <c r="H131" t="s">
-        <v>142</v>
+        <v>129</v>
       </c>
       <c r="I131">
         <v>1864</v>
       </c>
       <c r="J131" t="s">
-        <v>140</v>
+        <v>127</v>
       </c>
       <c r="K131">
         <v>1895</v>
       </c>
       <c r="L131" t="s">
-        <v>143</v>
+        <v>130</v>
       </c>
       <c r="M131" t="s">
         <v>0</v>
@@ -10578,7 +10625,7 @@
         <v>0</v>
       </c>
       <c r="O131" t="s">
-        <v>144</v>
+        <v>131</v>
       </c>
       <c r="Q131">
         <f t="shared" si="9"/>
@@ -10593,27 +10640,27 @@
         <v>38.5</v>
       </c>
     </row>
-    <row r="132" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
-        <v>576</v>
+        <v>556</v>
       </c>
       <c r="B132" t="s">
-        <v>288</v>
+        <v>269</v>
       </c>
       <c r="C132">
         <v>1</v>
       </c>
       <c r="D132" t="s">
-        <v>585</v>
+        <v>565</v>
       </c>
       <c r="E132" t="s">
-        <v>586</v>
+        <v>566</v>
       </c>
       <c r="F132" t="s">
         <v>0</v>
       </c>
       <c r="G132" t="s">
-        <v>578</v>
+        <v>558</v>
       </c>
       <c r="H132" t="s">
         <v>0</v>
@@ -10622,13 +10669,13 @@
         <v>1906</v>
       </c>
       <c r="J132" t="s">
-        <v>578</v>
+        <v>558</v>
       </c>
       <c r="K132">
         <v>1906</v>
       </c>
       <c r="L132" t="s">
-        <v>578</v>
+        <v>558</v>
       </c>
       <c r="M132" t="s">
         <v>0</v>
@@ -10637,7 +10684,7 @@
         <v>0</v>
       </c>
       <c r="O132" t="s">
-        <v>578</v>
+        <v>558</v>
       </c>
       <c r="Q132">
         <f t="shared" si="9"/>
@@ -10652,27 +10699,27 @@
         <v>12</v>
       </c>
     </row>
-    <row r="133" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
-        <v>183</v>
+        <v>168</v>
       </c>
       <c r="B133" t="s">
-        <v>288</v>
+        <v>269</v>
       </c>
       <c r="C133">
         <v>1</v>
       </c>
       <c r="D133" t="s">
-        <v>384</v>
+        <v>365</v>
       </c>
       <c r="E133" t="s">
-        <v>138</v>
+        <v>125</v>
       </c>
       <c r="F133" t="s">
         <v>0</v>
       </c>
       <c r="G133" t="s">
-        <v>137</v>
+        <v>124</v>
       </c>
       <c r="H133" t="s">
         <v>0</v>
@@ -10681,13 +10728,13 @@
         <v>1906</v>
       </c>
       <c r="J133" t="s">
-        <v>137</v>
+        <v>124</v>
       </c>
       <c r="K133">
         <v>1907</v>
       </c>
       <c r="L133" t="s">
-        <v>137</v>
+        <v>124</v>
       </c>
       <c r="M133" t="s">
         <v>0</v>
@@ -10696,7 +10743,7 @@
         <v>0</v>
       </c>
       <c r="O133" t="s">
-        <v>137</v>
+        <v>124</v>
       </c>
       <c r="Q133">
         <f t="shared" si="9"/>
@@ -10711,27 +10758,27 @@
         <v>11.5</v>
       </c>
     </row>
-    <row r="134" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
-        <v>381</v>
+        <v>362</v>
       </c>
       <c r="B134" t="s">
-        <v>288</v>
+        <v>269</v>
       </c>
       <c r="C134">
         <v>1</v>
       </c>
-      <c r="D134" s="8" t="s">
-        <v>383</v>
+      <c r="D134" s="6" t="s">
+        <v>364</v>
       </c>
       <c r="E134" t="s">
-        <v>382</v>
+        <v>363</v>
       </c>
       <c r="F134" t="s">
         <v>0</v>
       </c>
       <c r="G134" t="s">
-        <v>137</v>
+        <v>124</v>
       </c>
       <c r="H134" t="s">
         <v>0</v>
@@ -10740,13 +10787,13 @@
         <v>1906</v>
       </c>
       <c r="J134" t="s">
-        <v>137</v>
+        <v>124</v>
       </c>
       <c r="K134">
         <v>1907</v>
       </c>
       <c r="L134" t="s">
-        <v>137</v>
+        <v>124</v>
       </c>
       <c r="M134" t="s">
         <v>0</v>
@@ -10755,7 +10802,7 @@
         <v>0</v>
       </c>
       <c r="O134" t="s">
-        <v>137</v>
+        <v>124</v>
       </c>
       <c r="Q134">
         <f t="shared" si="9"/>
@@ -10770,11 +10817,11 @@
         <v>11.5</v>
       </c>
     </row>
-    <row r="138" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="D138" s="6"/>
+    <row r="138" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="D138" s="4"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:S135">
+  <sortState ref="A3:S135">
     <sortCondition descending="1" ref="S3:S135"/>
     <sortCondition ref="A3:A135"/>
   </sortState>
@@ -10786,206 +10833,267 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="20" customWidth="1"/>
-    <col min="2" max="2" width="20.44140625" customWidth="1"/>
-    <col min="4" max="5" width="19.88671875" customWidth="1"/>
-    <col min="7" max="7" width="8.88671875" style="2"/>
+    <col min="1" max="1" width="13" style="8" customWidth="1"/>
+    <col min="2" max="2" width="20.5" style="8" customWidth="1"/>
+    <col min="3" max="3" width="8.83203125" style="8"/>
+    <col min="4" max="4" width="49.1640625" style="8" customWidth="1"/>
+    <col min="5" max="5" width="36.83203125" style="9" customWidth="1"/>
+    <col min="6" max="6" width="36.33203125" style="9" customWidth="1"/>
+    <col min="7" max="16384" width="8.83203125" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>626</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>621</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="1" t="s">
+        <v>620</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>623</v>
+      </c>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2" s="8">
+        <v>1</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>622</v>
+      </c>
+      <c r="C2" s="8">
+        <v>2006</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>624</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>627</v>
+      </c>
+      <c r="F2" s="9">
+        <v>9781593392666</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3" s="8">
+        <v>2</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>625</v>
+      </c>
+      <c r="C3" s="8">
+        <v>2005</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>262</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>628</v>
+      </c>
+      <c r="F3" s="9">
+        <v>9780028659817</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4" s="8">
         <v>3</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="B4" s="8" t="s">
+        <v>629</v>
+      </c>
+      <c r="C4" s="8">
+        <v>2004</v>
+      </c>
+      <c r="D4" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E4" s="8" t="s">
+        <v>628</v>
+      </c>
+      <c r="F4" s="9">
+        <v>9780028657189</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5" s="8">
+        <v>4</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>631</v>
+      </c>
+      <c r="C5" s="8">
+        <v>2001</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>203</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>630</v>
+      </c>
+      <c r="F5" s="9">
+        <v>9780521859424</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6" s="8">
         <v>5</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="B6" s="8" t="s">
+        <v>632</v>
+      </c>
+      <c r="C6" s="8">
+        <v>1996</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>630</v>
+      </c>
+      <c r="F6" s="12">
+        <v>9780521438780</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A7" s="8">
         <v>6</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="B7" s="8" t="s">
+        <v>634</v>
+      </c>
+      <c r="C7" s="8">
+        <v>2015</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>221</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>633</v>
+      </c>
+      <c r="F7" s="9">
+        <v>9781405167000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A8" s="8">
         <v>7</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="B8" s="8" t="s">
+        <v>635</v>
+      </c>
+      <c r="C8" s="8">
+        <v>2000</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>637</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>636</v>
+      </c>
+      <c r="F8" s="13">
+        <v>9788120817418</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A9" s="8">
         <v>8</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="B9" s="8" t="s">
+        <v>641</v>
+      </c>
+      <c r="C9" s="8">
+        <v>2009</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="E9" s="11" t="s">
+        <v>642</v>
+      </c>
+      <c r="F9" s="14">
+        <v>9781845116262</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A10" s="8">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C2">
-        <v>2006</v>
-      </c>
-      <c r="D2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>36</v>
-      </c>
-      <c r="C3">
-        <v>2005</v>
-      </c>
-      <c r="D3" t="s">
-        <v>281</v>
-      </c>
-      <c r="G3"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
+      <c r="B10" s="8" t="s">
+        <v>638</v>
+      </c>
+      <c r="C10" s="8">
+        <v>2017</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>640</v>
+      </c>
+      <c r="F10" s="16" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A11" s="8">
+        <v>10</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>647</v>
+      </c>
+      <c r="C11" s="8">
+        <v>2019</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>643</v>
+      </c>
+      <c r="E11" s="9" t="s">
+        <v>644</v>
+      </c>
+      <c r="F11" s="15">
+        <v>9780231548830</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A12" s="8">
         <v>11</v>
       </c>
-      <c r="C4">
-        <v>2004</v>
-      </c>
-      <c r="D4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5">
-        <v>2001</v>
-      </c>
-      <c r="D5" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>101</v>
-      </c>
-      <c r="C6">
-        <v>1996</v>
-      </c>
-      <c r="D6" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7" t="s">
-        <v>240</v>
-      </c>
-      <c r="C7">
-        <v>2015</v>
-      </c>
-      <c r="D7" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="B8" t="s">
-        <v>16</v>
-      </c>
-      <c r="C8">
-        <v>2000</v>
-      </c>
-      <c r="D8" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A9">
-        <v>8</v>
-      </c>
-      <c r="B9" t="s">
-        <v>160</v>
-      </c>
-      <c r="C9">
-        <v>2009</v>
-      </c>
-      <c r="D9" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A10">
-        <v>9</v>
-      </c>
-      <c r="B10" t="s">
-        <v>193</v>
-      </c>
-      <c r="C10">
-        <v>2017</v>
-      </c>
-      <c r="D10" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A11">
-        <v>10</v>
-      </c>
-      <c r="B11" t="s">
-        <v>214</v>
-      </c>
-      <c r="C11">
-        <v>2019</v>
-      </c>
-      <c r="D11" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A12">
-        <v>11</v>
-      </c>
-      <c r="B12" t="s">
-        <v>396</v>
-      </c>
-      <c r="C12">
+      <c r="B12" s="8" t="s">
+        <v>645</v>
+      </c>
+      <c r="C12" s="8">
         <v>2012</v>
       </c>
-      <c r="D12" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A17" s="3"/>
+      <c r="D12" s="8" t="s">
+        <v>377</v>
+      </c>
+      <c r="E12" s="9" t="s">
+        <v>646</v>
+      </c>
+      <c r="F12" s="14">
+        <v>9780670084272</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A17" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
